--- a/src/pyisotopomer/00_Python_template.xlsx
+++ b/src/pyisotopomer/00_Python_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/colette/Box Sync/N2O Research/Spec Calibration Files/N2O_isotopocule_data_corrections/pyisotopomer/pyisotopomer/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/colette/Box Sync/N2O Research/N2O_isotopocule_data_corrections/pyisotopomer/src/pyisotopomer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F01A39-2C97-CA47-9D84-C0BD33004D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{190E80FD-B8E1-474A-B172-1D5756769B86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="500" windowWidth="18520" windowHeight="15820" activeTab="1" xr2:uid="{C87639FE-6F05-2348-B25E-B6AD821683A8}"/>
+    <workbookView xWindow="10280" yWindow="500" windowWidth="18520" windowHeight="15820" xr2:uid="{C87639FE-6F05-2348-B25E-B6AD821683A8}"/>
   </bookViews>
   <sheets>
     <sheet name="size_correction" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="111">
   <si>
     <t>Raw data</t>
   </si>
@@ -283,9 +283,6 @@
     <t>2020/12/05 19:34:26</t>
   </si>
   <si>
-    <t>g=0.171</t>
-  </si>
-  <si>
     <t>SAMPLE ID</t>
   </si>
   <si>
@@ -340,18 +337,12 @@
     <t>2.4</t>
   </si>
   <si>
-    <t>k=0.079</t>
-  </si>
-  <si>
     <t>SIZE CORRECTION SLOPES (updated 5/10/21)</t>
   </si>
   <si>
     <t>MATLAB/PYTHON OUTPUT</t>
   </si>
   <si>
-    <t>Scrambling coefficients</t>
-  </si>
-  <si>
     <t>Scale Decompression</t>
   </si>
   <si>
@@ -374,19 +365,26 @@
   </si>
   <si>
     <t>Running mean measured isotopes</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>kappa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.0000000000000"/>
     <numFmt numFmtId="167" formatCode="0.00000000000"/>
     <numFmt numFmtId="168" formatCode="0.00000000000000000"/>
     <numFmt numFmtId="169" formatCode="0.000000000000"/>
+    <numFmt numFmtId="170" formatCode="0.00000"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -653,43 +651,6 @@
         <color auto="1"/>
       </left>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
       <top/>
       <bottom style="medium">
         <color auto="1"/>
@@ -716,11 +677,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -730,9 +728,6 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -781,19 +776,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="167" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -808,9 +794,9 @@
     <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -837,11 +823,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -855,6 +839,33 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -978,13 +989,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>15.051210008933149</c:v>
+                  <c:v>15.096833230519634</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.9565314303671858</c:v>
+                  <c:v>-0.91149543144471468</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.1653607336575833</c:v>
+                  <c:v>6.2105946396398499</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1093,13 +1104,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>-3.5561697630345002</c:v>
+                  <c:v>-3.601793278303397</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.68363131823097723</c:v>
+                  <c:v>0.63859534458080758</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-13.0996991065127</c:v>
+                  <c:v>-13.144933321750001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1208,13 +1219,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>46.348029409836023</c:v>
+                  <c:v>46.34803503983705</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43.508667511434091</c:v>
+                  <c:v>43.508667027551191</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34.227640725793755</c:v>
+                  <c:v>34.227646621075479</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1323,13 +1334,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>23.653205185354519</c:v>
+                  <c:v>23.653208027480417</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22.21895213830253</c:v>
+                  <c:v>22.218951893728967</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.517559897319124</c:v>
+                  <c:v>17.517562890149723</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2553,10 +2564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{357C812C-3217-554B-B2A1-EA8A97EA775D}">
-  <dimension ref="A1:BC40"/>
+  <dimension ref="A1:BD40"/>
   <sheetViews>
-    <sheetView topLeftCell="AI1" workbookViewId="0">
-      <selection activeCell="AP22" sqref="AP22"/>
+    <sheetView tabSelected="1" topLeftCell="AP1" workbookViewId="0">
+      <selection activeCell="AV1" sqref="AV1:AV1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2569,16 +2580,17 @@
     <col min="28" max="29" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="31" max="33" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="35" max="37" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="15.6640625" style="55" customWidth="1"/>
-    <col min="39" max="39" width="14.33203125" customWidth="1"/>
-    <col min="41" max="41" width="13.5" customWidth="1"/>
-    <col min="46" max="46" width="14.1640625" customWidth="1"/>
-    <col min="48" max="48" width="17.1640625" customWidth="1"/>
+    <col min="38" max="38" width="9.6640625" style="72" customWidth="1"/>
+    <col min="39" max="39" width="10.1640625" customWidth="1"/>
+    <col min="40" max="40" width="15.6640625" style="49" customWidth="1"/>
+    <col min="41" max="41" width="14.33203125" customWidth="1"/>
+    <col min="43" max="43" width="13.5" customWidth="1"/>
+    <col min="49" max="49" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55">
-      <c r="A1" s="52" t="s">
-        <v>109</v>
+    <row r="1" spans="1:56" ht="17" thickBot="1">
+      <c r="A1" s="46" t="s">
+        <v>106</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -2595,1447 +2607,1488 @@
       </c>
       <c r="AF1" s="8"/>
       <c r="AG1" s="8"/>
-      <c r="AI1" s="9" t="s">
+      <c r="AI1" s="62" t="s">
+        <v>107</v>
+      </c>
+      <c r="AJ1" s="62"/>
+      <c r="AK1" s="62"/>
+      <c r="AL1" s="69"/>
+      <c r="AM1" s="62"/>
+      <c r="AN1" s="50"/>
+      <c r="AP1" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="AQ1" s="43"/>
+      <c r="AR1" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="AS1" s="43"/>
+      <c r="AT1" s="43"/>
+      <c r="AU1" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="AW1" s="58" t="s">
+        <v>103</v>
+      </c>
+      <c r="AX1" s="58"/>
+      <c r="AY1" s="58"/>
+      <c r="AZ1" s="58"/>
+      <c r="BA1" s="58"/>
+      <c r="BB1" s="58"/>
+    </row>
+    <row r="2" spans="1:56" ht="52" thickBot="1">
+      <c r="A2" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="R2" s="14"/>
+      <c r="S2" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="T2" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="U2" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="V2" s="9"/>
+      <c r="W2" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="X2" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y2" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB2" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC2" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD2" s="9"/>
+      <c r="AE2" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF2" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG2" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH2" s="24"/>
+      <c r="AI2" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ2" s="63" t="s">
+        <v>31</v>
+      </c>
+      <c r="AK2" s="63" t="s">
+        <v>32</v>
+      </c>
+      <c r="AL2" s="70" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM2" s="64" t="s">
         <v>110</v>
       </c>
-      <c r="AJ1" s="10"/>
-      <c r="AK1" s="11"/>
-      <c r="AL1" s="56"/>
-      <c r="AN1" s="49" t="s">
-        <v>102</v>
-      </c>
-      <c r="AO1" s="49"/>
-      <c r="AP1" s="49" t="s">
-        <v>53</v>
-      </c>
-      <c r="AQ1" s="49"/>
-      <c r="AR1" s="49"/>
-      <c r="AS1" s="49" t="s">
-        <v>54</v>
-      </c>
-      <c r="AV1" s="66" t="s">
-        <v>106</v>
-      </c>
-      <c r="AW1" s="66"/>
-      <c r="AX1" s="66"/>
-      <c r="AY1" s="66"/>
-      <c r="AZ1" s="66"/>
-      <c r="BA1" s="66"/>
+      <c r="AN2" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AP2" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ2" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="AR2" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="AS2" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="AT2" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU2" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV2" s="49"/>
+      <c r="AW2" s="59" t="s">
+        <v>33</v>
+      </c>
+      <c r="AX2" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="AY2" s="59" t="s">
+        <v>37</v>
+      </c>
+      <c r="AZ2" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="BA2" s="59" t="s">
+        <v>55</v>
+      </c>
+      <c r="BB2" s="60" t="s">
+        <v>36</v>
+      </c>
+      <c r="BC2" s="49"/>
+      <c r="BD2" s="49"/>
     </row>
-    <row r="2" spans="1:55" ht="52" thickBot="1">
-      <c r="A2" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="N2" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="O2" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="P2" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q2" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="R2" s="17"/>
-      <c r="S2" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="T2" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="U2" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="V2" s="12"/>
-      <c r="W2" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="X2" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y2" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z2" s="12"/>
-      <c r="AA2" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="AB2" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC2" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD2" s="12"/>
-      <c r="AE2" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="AF2" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="AG2" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="AH2" s="27"/>
-      <c r="AI2" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ2" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="AK2" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL2" s="57" t="s">
-        <v>83</v>
-      </c>
-      <c r="AM2" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AN2" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="AO2" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="AP2" s="50" t="s">
-        <v>37</v>
-      </c>
-      <c r="AQ2" s="50" t="s">
-        <v>35</v>
-      </c>
-      <c r="AR2" s="50" t="s">
-        <v>55</v>
-      </c>
-      <c r="AS2" s="51" t="s">
-        <v>36</v>
-      </c>
-      <c r="AT2" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="AU2" s="55"/>
-      <c r="AV2" s="67" t="s">
-        <v>33</v>
-      </c>
-      <c r="AW2" s="67" t="s">
-        <v>34</v>
-      </c>
-      <c r="AX2" s="67" t="s">
-        <v>37</v>
-      </c>
-      <c r="AY2" s="67" t="s">
-        <v>35</v>
-      </c>
-      <c r="AZ2" s="67" t="s">
-        <v>55</v>
-      </c>
-      <c r="BA2" s="68" t="s">
-        <v>36</v>
-      </c>
-      <c r="BB2" s="55"/>
-      <c r="BC2" s="55"/>
-    </row>
-    <row r="3" spans="1:55" ht="17" thickBot="1">
+    <row r="3" spans="1:56" ht="17" thickBot="1">
       <c r="A3">
         <v>201204</v>
       </c>
       <c r="B3" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="53">
+      <c r="C3" s="47">
         <v>2</v>
       </c>
-      <c r="D3" s="53" t="s">
+      <c r="D3" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="E3" s="53">
+      <c r="E3" s="47">
         <v>0</v>
       </c>
-      <c r="F3" s="53">
+      <c r="F3" s="47">
         <v>5.4059999999999997</v>
       </c>
-      <c r="G3" s="53">
+      <c r="G3" s="47">
         <v>46.78</v>
       </c>
-      <c r="H3" s="53">
+      <c r="H3" s="47">
         <v>3.4780000000000002</v>
       </c>
-      <c r="I3" s="53">
+      <c r="I3" s="47">
         <v>4.7690000000000001</v>
       </c>
-      <c r="J3" s="53">
+      <c r="J3" s="47">
         <v>4.95</v>
       </c>
-      <c r="K3" s="53">
+      <c r="K3" s="47">
         <v>2.1</v>
       </c>
-      <c r="L3" s="53">
+      <c r="L3" s="47">
         <v>1547.6</v>
       </c>
-      <c r="M3" s="53" t="s">
+      <c r="M3" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="N3" s="54">
+      <c r="N3" s="48">
         <v>44169.764756944445</v>
       </c>
-      <c r="O3" s="53">
+      <c r="O3" s="47">
         <v>0.76603699999999997</v>
       </c>
-      <c r="P3" s="53">
+      <c r="P3" s="47">
         <v>0.74141800000000002</v>
       </c>
-      <c r="Q3" s="53">
+      <c r="Q3" s="47">
         <v>0.43208400000000002</v>
       </c>
-      <c r="S3" s="31">
+      <c r="S3" s="25">
         <v>0.76203100000000001</v>
       </c>
-      <c r="T3" s="31">
+      <c r="T3" s="25">
         <v>0.73642510000000005</v>
       </c>
-      <c r="U3" s="31">
+      <c r="U3" s="25">
         <v>0.42840719999999999</v>
       </c>
-      <c r="W3" s="32">
+      <c r="W3" s="26">
         <v>3.73376282567055E-3</v>
       </c>
-      <c r="X3" s="33">
+      <c r="X3" s="27">
         <v>7.7410249496226297E-3</v>
       </c>
-      <c r="Y3" s="34">
+      <c r="Y3" s="28">
         <v>2.1012952215756198E-3</v>
       </c>
-      <c r="AA3" s="35">
+      <c r="AA3" s="29">
         <f>O3/S3</f>
         <v>1.0052570039801529</v>
       </c>
-      <c r="AB3" s="36">
+      <c r="AB3" s="30">
         <f t="shared" ref="AB3:AC18" si="0">P3/T3</f>
         <v>1.0067799155677881</v>
       </c>
-      <c r="AC3" s="37">
+      <c r="AC3" s="31">
         <f t="shared" si="0"/>
         <v>1.0085824888097119</v>
       </c>
-      <c r="AE3" s="38">
+      <c r="AE3" s="32">
         <f>$W$7*(20-I3)+AC3</f>
         <v>1.0094442361786187</v>
       </c>
-      <c r="AF3" s="38">
+      <c r="AF3" s="32">
         <f>$X$7*(20-I3)+AA3</f>
         <v>1.0056851052976181</v>
       </c>
-      <c r="AG3" s="38">
+      <c r="AG3" s="32">
         <f>$Y$7*(20-I3)+AB3</f>
         <v>1.0075218399408568</v>
       </c>
-      <c r="AH3" s="39"/>
-      <c r="AI3" s="40">
+      <c r="AH3" s="33"/>
+      <c r="AI3" s="34">
         <f>AE3*$W$3</f>
         <v>3.7690253636311292E-3</v>
       </c>
-      <c r="AJ3" s="40">
+      <c r="AJ3" s="34">
         <f>AF3*$X$3</f>
         <v>7.7850334915727237E-3</v>
       </c>
-      <c r="AK3" s="40">
+      <c r="AK3" s="34">
         <f>AG3*$Y$3</f>
         <v>2.1171008279007989E-3</v>
       </c>
-      <c r="AL3" s="58">
+      <c r="AL3" s="67">
+        <v>0.17219999999999999</v>
+      </c>
+      <c r="AM3" s="68">
+        <v>7.9710000000000003E-2</v>
+      </c>
+      <c r="AN3" s="52">
         <f>A3</f>
         <v>201204</v>
       </c>
-      <c r="AM3" t="str">
+      <c r="AO3" t="str">
         <f>D3</f>
         <v>ATM_EQ_SW</v>
       </c>
-      <c r="AN3" s="64">
-        <v>14.470670301233101</v>
-      </c>
-      <c r="AO3" s="64">
-        <v>-2.7973453825958998</v>
-      </c>
-      <c r="AP3" s="64">
-        <v>17.268015683828999</v>
-      </c>
-      <c r="AQ3" s="64">
-        <v>5.8366624593186298</v>
-      </c>
-      <c r="AR3" s="64">
-        <v>24.260364594243601</v>
-      </c>
-      <c r="AS3" s="64">
-        <v>47.550890704756597</v>
-      </c>
-      <c r="AT3" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="AU3" s="55"/>
-      <c r="AV3" s="63">
-        <f>AN3*scale_decompression!B$14+scale_decompression!B$15</f>
-        <v>14.755098565830519</v>
-      </c>
-      <c r="AW3" s="63">
-        <f>AO3*scale_decompression!C$14+scale_decompression!C$15</f>
-        <v>-3.073114245783807</v>
-      </c>
-      <c r="AX3" s="63">
-        <f>AV3-AW3</f>
-        <v>17.828212811614325</v>
-      </c>
-      <c r="AY3" s="63">
-        <f>AVERAGE(AV3:AW3)</f>
-        <v>5.8409921600233563</v>
-      </c>
-      <c r="AZ3" s="63">
-        <f>AR3*scale_decompression!F$14+scale_decompression!F$15</f>
-        <v>23.289736323575124</v>
-      </c>
-      <c r="BA3" s="63">
-        <f>AS3*scale_decompression!G$14+scale_decompression!G$15</f>
-        <v>45.62761310353428</v>
-      </c>
-      <c r="BB3" s="55"/>
-      <c r="BC3" s="55"/>
+      <c r="AP3" s="56">
+        <v>14.5162657135253</v>
+      </c>
+      <c r="AQ3" s="56">
+        <v>-2.8429410815947702</v>
+      </c>
+      <c r="AR3" s="56">
+        <v>17.359206795120102</v>
+      </c>
+      <c r="AS3" s="56">
+        <v>5.8366623159652997</v>
+      </c>
+      <c r="AT3" s="56">
+        <v>24.260367368862799</v>
+      </c>
+      <c r="AU3" s="56">
+        <v>47.550896204196299</v>
+      </c>
+      <c r="AV3" s="49"/>
+      <c r="AW3" s="55">
+        <f>AP3*scale_decompression!B$14+scale_decompression!B$15</f>
+        <v>14.75511413219605</v>
+      </c>
+      <c r="AX3" s="55">
+        <f>AQ3*scale_decompression!C$14+scale_decompression!C$15</f>
+        <v>-3.0734115243780491</v>
+      </c>
+      <c r="AY3" s="55">
+        <f>AW3-AX3</f>
+        <v>17.828525656574101</v>
+      </c>
+      <c r="AZ3" s="55">
+        <f>AVERAGE(AW3:AX3)</f>
+        <v>5.8408513039090009</v>
+      </c>
+      <c r="BA3" s="55">
+        <f>AT3*scale_decompression!F$14+scale_decompression!F$15</f>
+        <v>23.289737723039753</v>
+      </c>
+      <c r="BB3" s="55">
+        <f>AU3*scale_decompression!G$14+scale_decompression!G$15</f>
+        <v>45.627615868510262</v>
+      </c>
+      <c r="BC3" s="49"/>
+      <c r="BD3" s="49"/>
     </row>
-    <row r="4" spans="1:55" ht="17" thickBot="1">
+    <row r="4" spans="1:56" ht="17" thickBot="1">
       <c r="A4">
         <v>201205</v>
       </c>
       <c r="B4" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="31">
+      <c r="C4" s="25">
         <v>1</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="31">
+      <c r="E4" s="25">
         <v>0</v>
       </c>
-      <c r="F4" s="31">
+      <c r="F4" s="25">
         <v>-3.6890000000000001</v>
       </c>
-      <c r="G4" s="31">
+      <c r="G4" s="25">
         <v>33.856000000000002</v>
       </c>
-      <c r="H4" s="31">
+      <c r="H4" s="25">
         <v>-2.9340000000000002</v>
       </c>
-      <c r="I4" s="31">
+      <c r="I4" s="25">
         <v>6.2770000000000001</v>
       </c>
-      <c r="J4" s="31">
+      <c r="J4" s="25">
         <v>6.5369999999999999</v>
       </c>
-      <c r="K4" s="31" t="s">
+      <c r="K4" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="L4" s="31">
+      <c r="L4" s="25">
         <v>1546.3</v>
       </c>
-      <c r="M4" s="31" t="s">
+      <c r="M4" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="N4" s="31" t="s">
+      <c r="N4" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="O4" s="31">
+      <c r="O4" s="25">
         <v>0.75906430000000003</v>
       </c>
-      <c r="P4" s="31">
+      <c r="P4" s="25">
         <v>0.73224469999999997</v>
       </c>
-      <c r="Q4" s="31">
+      <c r="Q4" s="25">
         <v>0.42948419999999998</v>
       </c>
-      <c r="S4" s="31">
+      <c r="S4" s="25">
         <v>0.76188020000000001</v>
       </c>
-      <c r="T4" s="31">
+      <c r="T4" s="25">
         <v>0.73643610000000004</v>
       </c>
-      <c r="U4" s="31">
+      <c r="U4" s="25">
         <v>0.42930239999999997</v>
       </c>
-      <c r="AA4" s="35">
+      <c r="AA4" s="29">
         <f t="shared" ref="AA4:AC32" si="1">O4/S4</f>
         <v>0.99630401210059016</v>
       </c>
-      <c r="AB4" s="36">
+      <c r="AB4" s="30">
         <f t="shared" si="0"/>
         <v>0.99430853539091846</v>
       </c>
-      <c r="AC4" s="37">
+      <c r="AC4" s="31">
         <f t="shared" si="0"/>
         <v>1.0004234777164069</v>
       </c>
-      <c r="AE4" s="38">
+      <c r="AE4" s="32">
         <f t="shared" ref="AE4:AE24" si="2">$W$7*(20-I4)+AC4</f>
         <v>1.0011999046840065</v>
       </c>
-      <c r="AF4" s="38">
+      <c r="AF4" s="32">
         <f t="shared" ref="AF4:AF24" si="3">$X$7*(20-I4)+AA4</f>
         <v>0.99668972770557829</v>
       </c>
-      <c r="AG4" s="38">
+      <c r="AG4" s="32">
         <f t="shared" ref="AG4:AG24" si="4">$Y$7*(20-I4)+AB4</f>
         <v>0.99497700286985102</v>
       </c>
-      <c r="AH4" s="39"/>
-      <c r="AI4" s="40">
+      <c r="AH4" s="33"/>
+      <c r="AI4" s="34">
         <f t="shared" ref="AI4:AI24" si="5">AE4*$W$3</f>
         <v>3.7382429851740414E-3</v>
       </c>
-      <c r="AJ4" s="40">
+      <c r="AJ4" s="34">
         <f t="shared" ref="AJ4:AJ16" si="6">AF4*$X$3</f>
         <v>7.7154000492014665E-3</v>
       </c>
-      <c r="AK4" s="40">
+      <c r="AK4" s="34">
         <f t="shared" ref="AK4:AK24" si="7">AG4*$Y$3</f>
         <v>2.0907404217080498E-3</v>
       </c>
-      <c r="AL4" s="58">
-        <f t="shared" ref="AL4:AL17" si="8">A4</f>
+      <c r="AL4" s="67">
+        <v>0.17219999999999999</v>
+      </c>
+      <c r="AM4" s="68">
+        <v>7.9710000000000003E-2</v>
+      </c>
+      <c r="AN4" s="52">
+        <f t="shared" ref="AN4:AN17" si="8">A4</f>
         <v>201205</v>
       </c>
-      <c r="AM4" s="52" t="str">
-        <f t="shared" ref="AM4:AM17" si="9">D4</f>
+      <c r="AO4" s="46" t="str">
+        <f t="shared" ref="AO4:AO17" si="9">D4</f>
         <v>S2_ref_1</v>
       </c>
-      <c r="AN4" s="64">
-        <v>6.13555406578703</v>
-      </c>
-      <c r="AO4" s="64">
-        <v>-12.722560186168201</v>
-      </c>
-      <c r="AP4" s="64">
-        <v>18.8581142519552</v>
-      </c>
-      <c r="AQ4" s="64">
-        <v>-3.2935030601905999</v>
-      </c>
-      <c r="AR4" s="64">
-        <v>17.6814351225267</v>
-      </c>
-      <c r="AS4" s="64">
-        <v>34.550395937069801</v>
-      </c>
-      <c r="AT4" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="AU4" s="55"/>
-      <c r="AV4" s="63">
-        <f>AN4*scale_decompression!B$14+scale_decompression!B$15</f>
-        <v>6.3237534317699202</v>
-      </c>
-      <c r="AW4" s="63">
-        <f>AO4*scale_decompression!C$14+scale_decompression!C$15</f>
-        <v>-12.368009399954147</v>
-      </c>
-      <c r="AX4" s="63">
-        <f t="shared" ref="AX4:AX17" si="10">AV4-AW4</f>
-        <v>18.691762831724066</v>
-      </c>
-      <c r="AY4" s="63">
-        <f t="shared" ref="AY4:AY17" si="11">AVERAGE(AV4:AW4)</f>
-        <v>-3.0221279840921134</v>
-      </c>
-      <c r="AZ4" s="63">
-        <f>AR4*scale_decompression!F$14+scale_decompression!F$15</f>
-        <v>16.941061257414592</v>
-      </c>
-      <c r="BA4" s="63">
-        <f>AS4*scale_decompression!G$14+scale_decompression!G$15</f>
-        <v>33.092540315055601</v>
-      </c>
-      <c r="BB4" s="55"/>
-      <c r="BC4" s="55"/>
+      <c r="AP4" s="56">
+        <v>6.1807890246294797</v>
+      </c>
+      <c r="AQ4" s="56">
+        <v>-12.767795447653199</v>
+      </c>
+      <c r="AR4" s="56">
+        <v>18.9485844722827</v>
+      </c>
+      <c r="AS4" s="56">
+        <v>-3.2935032115118901</v>
+      </c>
+      <c r="AT4" s="56">
+        <v>17.6814380513656</v>
+      </c>
+      <c r="AU4" s="56">
+        <v>34.550401707199804</v>
+      </c>
+      <c r="AV4" s="49"/>
+      <c r="AW4" s="55">
+        <f>AP4*scale_decompression!B$14+scale_decompression!B$15</f>
+        <v>6.3237128197409893</v>
+      </c>
+      <c r="AX4" s="55">
+        <f>AQ4*scale_decompression!C$14+scale_decompression!C$15</f>
+        <v>-12.367896875494168</v>
+      </c>
+      <c r="AY4" s="55">
+        <f t="shared" ref="AY4:AY17" si="10">AW4-AX4</f>
+        <v>18.691609695235158</v>
+      </c>
+      <c r="AZ4" s="55">
+        <f t="shared" ref="AZ4:AZ17" si="11">AVERAGE(AW4:AX4)</f>
+        <v>-3.0220920278765893</v>
+      </c>
+      <c r="BA4" s="55">
+        <f>AT4*scale_decompression!F$14+scale_decompression!F$15</f>
+        <v>16.941061712465352</v>
+      </c>
+      <c r="BB4" s="55">
+        <f>AU4*scale_decompression!G$14+scale_decompression!G$15</f>
+        <v>33.092541217239358</v>
+      </c>
+      <c r="BC4" s="49"/>
+      <c r="BD4" s="49"/>
     </row>
-    <row r="5" spans="1:55">
+    <row r="5" spans="1:56">
       <c r="A5">
         <v>201205</v>
       </c>
       <c r="B5" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="31">
+      <c r="C5" s="25">
         <v>2</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="E5" s="31">
+      <c r="E5" s="25">
         <v>0</v>
       </c>
-      <c r="F5" s="31">
+      <c r="F5" s="25">
         <v>0.36399999999999999</v>
       </c>
-      <c r="G5" s="31">
+      <c r="G5" s="25">
         <v>44.33</v>
       </c>
-      <c r="H5" s="31">
+      <c r="H5" s="25">
         <v>2.266</v>
       </c>
-      <c r="I5" s="31">
+      <c r="I5" s="25">
         <v>21.184999999999999</v>
       </c>
-      <c r="J5" s="31">
+      <c r="J5" s="25">
         <v>22.027999999999999</v>
       </c>
-      <c r="K5" s="31" t="s">
+      <c r="K5" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="L5" s="31">
+      <c r="L5" s="25">
         <v>1545.8</v>
       </c>
-      <c r="M5" s="31" t="s">
+      <c r="M5" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="N5" s="31" t="s">
+      <c r="N5" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="O5" s="31">
+      <c r="O5" s="25">
         <v>0.76222789999999996</v>
       </c>
-      <c r="P5" s="31">
+      <c r="P5" s="25">
         <v>0.7396701</v>
       </c>
-      <c r="Q5" s="31">
+      <c r="Q5" s="25">
         <v>0.42810490000000001</v>
       </c>
-      <c r="S5" s="31">
+      <c r="S5" s="25">
         <v>0.76191050000000005</v>
       </c>
-      <c r="T5" s="31">
+      <c r="T5" s="25">
         <v>0.73645300000000002</v>
       </c>
-      <c r="U5" s="31">
+      <c r="U5" s="25">
         <v>0.42933650000000001</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="X5" s="3"/>
       <c r="Y5" s="4"/>
-      <c r="AA5" s="35">
+      <c r="AA5" s="29">
         <f t="shared" si="1"/>
         <v>1.0004165843625989</v>
       </c>
-      <c r="AB5" s="36">
+      <c r="AB5" s="30">
         <f t="shared" si="0"/>
         <v>1.0043683710976803</v>
       </c>
-      <c r="AC5" s="37">
+      <c r="AC5" s="31">
         <f t="shared" si="0"/>
         <v>0.99713138761787079</v>
       </c>
-      <c r="AE5" s="38">
+      <c r="AE5" s="32">
         <f t="shared" si="2"/>
         <v>0.99706434207705574</v>
       </c>
-      <c r="AF5" s="38">
+      <c r="AF5" s="32">
         <f t="shared" si="3"/>
         <v>1.0003832772874761</v>
       </c>
-      <c r="AG5" s="38">
+      <c r="AG5" s="32">
         <f t="shared" si="4"/>
         <v>1.0043106480077921</v>
       </c>
-      <c r="AH5" s="39"/>
-      <c r="AI5" s="40">
+      <c r="AH5" s="33"/>
+      <c r="AI5" s="34">
         <f t="shared" si="5"/>
         <v>3.7228017752489757E-3</v>
       </c>
-      <c r="AJ5" s="40">
+      <c r="AJ5" s="34">
         <f t="shared" si="6"/>
         <v>7.743991908667606E-3</v>
       </c>
-      <c r="AK5" s="40">
+      <c r="AK5" s="34">
         <f t="shared" si="7"/>
         <v>2.1103531656362878E-3</v>
       </c>
-      <c r="AL5" s="58">
+      <c r="AL5" s="67">
+        <v>0.17219999999999999</v>
+      </c>
+      <c r="AM5" s="68">
+        <v>7.9710000000000003E-2</v>
+      </c>
+      <c r="AN5" s="52">
         <f t="shared" si="8"/>
         <v>201205</v>
       </c>
-      <c r="AM5" s="52" t="str">
+      <c r="AO5" s="46" t="str">
         <f t="shared" si="9"/>
         <v>B6_ref_1</v>
       </c>
-      <c r="AN5" s="64">
-        <v>-0.94059250953937301</v>
-      </c>
-      <c r="AO5" s="64">
-        <v>1.6218818131319399</v>
-      </c>
-      <c r="AP5" s="64">
-        <v>-2.56247432267131</v>
-      </c>
-      <c r="AQ5" s="64">
-        <v>0.340644651796284</v>
-      </c>
-      <c r="AR5" s="64">
-        <v>22.603707667668601</v>
-      </c>
-      <c r="AS5" s="64">
-        <v>44.269801263415197</v>
-      </c>
-      <c r="AT5" s="31"/>
-      <c r="AU5" s="55"/>
-      <c r="AV5" s="63">
-        <f>AN5*scale_decompression!B$14+scale_decompression!B$15</f>
-        <v>-0.83408724021261593</v>
-      </c>
-      <c r="AW5" s="63">
-        <f>AO5*scale_decompression!C$14+scale_decompression!C$15</f>
-        <v>1.0654615190413772</v>
-      </c>
-      <c r="AX5" s="63">
+      <c r="AP5" s="56">
+        <v>-0.89555036190658299</v>
+      </c>
+      <c r="AQ5" s="56">
+        <v>1.57683970539701</v>
+      </c>
+      <c r="AR5" s="56">
+        <v>-2.4723900673035901</v>
+      </c>
+      <c r="AS5" s="56">
+        <v>0.34064467174521601</v>
+      </c>
+      <c r="AT5" s="56">
+        <v>22.6037072815556</v>
+      </c>
+      <c r="AU5" s="56">
+        <v>44.2698004992805</v>
+      </c>
+      <c r="AV5" s="49"/>
+      <c r="AW5" s="55">
+        <f>AP5*scale_decompression!B$14+scale_decompression!B$15</f>
+        <v>-0.83406104464985009</v>
+      </c>
+      <c r="AX5" s="55">
+        <f>AQ5*scale_decompression!C$14+scale_decompression!C$15</f>
+        <v>1.0656504975621253</v>
+      </c>
+      <c r="AY5" s="55">
         <f t="shared" si="10"/>
-        <v>-1.8995487592539932</v>
-      </c>
-      <c r="AY5" s="63">
+        <v>-1.8997115422119752</v>
+      </c>
+      <c r="AZ5" s="55">
         <f t="shared" si="11"/>
-        <v>0.11568713941438064</v>
-      </c>
-      <c r="AZ5" s="63">
-        <f>AR5*scale_decompression!F$14+scale_decompression!F$15</f>
-        <v>21.69106034321322</v>
-      </c>
-      <c r="BA5" s="63">
-        <f>AS5*scale_decompression!G$14+scale_decompression!G$15</f>
-        <v>42.463987740986525</v>
-      </c>
-      <c r="BB5" s="55"/>
-      <c r="BC5" s="55"/>
+        <v>0.11579472645613759</v>
+      </c>
+      <c r="BA5" s="55">
+        <f>AT5*scale_decompression!F$14+scale_decompression!F$15</f>
+        <v>21.691058417276292</v>
+      </c>
+      <c r="BB5" s="55">
+        <f>AU5*scale_decompression!G$14+scale_decompression!G$15</f>
+        <v>42.463983930618525</v>
+      </c>
+      <c r="BC5" s="49"/>
+      <c r="BD5" s="49"/>
     </row>
-    <row r="6" spans="1:55">
+    <row r="6" spans="1:56">
       <c r="A6">
         <v>201205</v>
       </c>
       <c r="B6" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="31">
+      <c r="C6" s="25">
         <v>3</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="31">
+      <c r="E6" s="25">
         <v>0</v>
       </c>
-      <c r="F6" s="31">
+      <c r="F6" s="25">
         <v>6.1689999999999996</v>
       </c>
-      <c r="G6" s="31">
+      <c r="G6" s="25">
         <v>46.973999999999997</v>
       </c>
-      <c r="H6" s="31">
+      <c r="H6" s="25">
         <v>3.5739999999999998</v>
       </c>
-      <c r="I6" s="31">
+      <c r="I6" s="25">
         <v>4.992</v>
       </c>
-      <c r="J6" s="31">
+      <c r="J6" s="25">
         <v>5.1929999999999996</v>
       </c>
-      <c r="K6" s="31" t="s">
+      <c r="K6" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="L6" s="31">
+      <c r="L6" s="25">
         <v>1546.9</v>
       </c>
-      <c r="M6" s="31" t="s">
+      <c r="M6" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="N6" s="31" t="s">
+      <c r="N6" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="O6" s="31">
+      <c r="O6" s="25">
         <v>0.76655629999999997</v>
       </c>
-      <c r="P6" s="31">
+      <c r="P6" s="25">
         <v>0.74166759999999998</v>
       </c>
-      <c r="Q6" s="31">
+      <c r="Q6" s="25">
         <v>0.43299870000000001</v>
       </c>
-      <c r="S6" s="31">
+      <c r="S6" s="25">
         <v>0.76199640000000002</v>
       </c>
-      <c r="T6" s="31">
+      <c r="T6" s="25">
         <v>0.73652949999999995</v>
       </c>
-      <c r="U6" s="31">
+      <c r="U6" s="25">
         <v>0.42932169999999997</v>
       </c>
-      <c r="W6" s="19" t="s">
+      <c r="W6" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="X6" s="20" t="s">
+      <c r="X6" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="Y6" s="21" t="s">
+      <c r="Y6" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="AA6" s="35">
+      <c r="AA6" s="29">
         <f t="shared" si="1"/>
         <v>1.0059841490064783</v>
       </c>
-      <c r="AB6" s="36">
+      <c r="AB6" s="30">
         <f t="shared" si="0"/>
         <v>1.0069760953227265</v>
       </c>
-      <c r="AC6" s="37">
+      <c r="AC6" s="31">
         <f t="shared" si="0"/>
         <v>1.008564673064511</v>
       </c>
-      <c r="AE6" s="38">
+      <c r="AE6" s="32">
         <f t="shared" si="2"/>
         <v>1.0094138034244713</v>
       </c>
-      <c r="AF6" s="38">
+      <c r="AF6" s="32">
         <f t="shared" si="3"/>
         <v>1.0064059824102283</v>
       </c>
-      <c r="AG6" s="38">
+      <c r="AG6" s="32">
         <f t="shared" si="4"/>
         <v>1.0077071570383731</v>
       </c>
-      <c r="AH6" s="39"/>
-      <c r="AI6" s="40">
+      <c r="AH6" s="33"/>
+      <c r="AI6" s="34">
         <f t="shared" si="5"/>
         <v>3.7689117349450109E-3</v>
       </c>
-      <c r="AJ6" s="40">
+      <c r="AJ6" s="34">
         <f t="shared" si="6"/>
         <v>7.7906138192870506E-3</v>
       </c>
-      <c r="AK6" s="40">
+      <c r="AK6" s="34">
         <f t="shared" si="7"/>
         <v>2.1174902338322861E-3</v>
       </c>
-      <c r="AL6" s="58">
+      <c r="AL6" s="67">
+        <v>0.17219999999999999</v>
+      </c>
+      <c r="AM6" s="68">
+        <v>7.9710000000000003E-2</v>
+      </c>
+      <c r="AN6" s="52">
         <f t="shared" si="8"/>
         <v>201205</v>
       </c>
-      <c r="AM6" t="str">
+      <c r="AO6" t="str">
         <f t="shared" si="9"/>
         <v>ATM_EQ_SW_1</v>
       </c>
-      <c r="AN6" s="64">
-        <v>14.2561403318026</v>
-      </c>
-      <c r="AO6" s="64">
-        <v>-1.0745010524815199</v>
-      </c>
-      <c r="AP6" s="64">
-        <v>15.3306413842841</v>
-      </c>
-      <c r="AQ6" s="64">
-        <v>6.5908196396605696</v>
-      </c>
-      <c r="AR6" s="64">
-        <v>24.352520338578799</v>
-      </c>
-      <c r="AS6" s="64">
-        <v>47.733555896923399</v>
-      </c>
-      <c r="AT6" s="31"/>
-      <c r="AU6" s="55"/>
-      <c r="AV6" s="63">
-        <f>AN6*scale_decompression!B$14+scale_decompression!B$15</f>
-        <v>14.53809184837456</v>
-      </c>
-      <c r="AW6" s="63">
-        <f>AO6*scale_decompression!C$14+scale_decompression!C$15</f>
-        <v>-1.4596824226653462</v>
-      </c>
-      <c r="AX6" s="63">
+      <c r="AP6" s="56">
+        <v>14.301762078425501</v>
+      </c>
+      <c r="AQ6" s="56">
+        <v>-1.1201230455292199</v>
+      </c>
+      <c r="AR6" s="56">
+        <v>15.4218851239548</v>
+      </c>
+      <c r="AS6" s="56">
+        <v>6.59081951644818</v>
+      </c>
+      <c r="AT6" s="56">
+        <v>24.352522723366899</v>
+      </c>
+      <c r="AU6" s="56">
+        <v>47.733560624096498</v>
+      </c>
+      <c r="AV6" s="49"/>
+      <c r="AW6" s="55">
+        <f>AP6*scale_decompression!B$14+scale_decompression!B$15</f>
+        <v>14.538141990348887</v>
+      </c>
+      <c r="AX6" s="55">
+        <f>AQ6*scale_decompression!C$14+scale_decompression!C$15</f>
+        <v>-1.4600168680684265</v>
+      </c>
+      <c r="AY6" s="55">
         <f t="shared" si="10"/>
-        <v>15.997774271039905</v>
-      </c>
-      <c r="AY6" s="63">
+        <v>15.998158858417312</v>
+      </c>
+      <c r="AZ6" s="55">
         <f t="shared" si="11"/>
-        <v>6.5392047128546071</v>
-      </c>
-      <c r="AZ6" s="63">
-        <f>AR6*scale_decompression!F$14+scale_decompression!F$15</f>
-        <v>23.378666730684603</v>
-      </c>
-      <c r="BA6" s="63">
-        <f>AS6*scale_decompression!G$14+scale_decompression!G$15</f>
-        <v>45.803738821874127</v>
-      </c>
-      <c r="BB6" s="55"/>
-      <c r="BC6" s="55"/>
+        <v>6.5390625611402307</v>
+      </c>
+      <c r="BA6" s="55">
+        <f>AT6*scale_decompression!F$14+scale_decompression!F$15</f>
+        <v>23.378667769275413</v>
+      </c>
+      <c r="BB6" s="55">
+        <f>AU6*scale_decompression!G$14+scale_decompression!G$15</f>
+        <v>45.803740872071401</v>
+      </c>
+      <c r="BC6" s="49"/>
+      <c r="BD6" s="49"/>
     </row>
-    <row r="7" spans="1:55" ht="17" thickBot="1">
+    <row r="7" spans="1:56" ht="17" thickBot="1">
       <c r="A7">
         <v>201205</v>
       </c>
       <c r="B7" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="31">
+      <c r="C7" s="25">
         <v>4</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="E7" s="31">
+      <c r="E7" s="25">
         <v>0</v>
       </c>
-      <c r="F7" s="31">
+      <c r="F7" s="25">
         <v>-2.8940000000000001</v>
       </c>
-      <c r="G7" s="31">
+      <c r="G7" s="25">
         <v>35.591999999999999</v>
       </c>
-      <c r="H7" s="31">
+      <c r="H7" s="25">
         <v>-2.0710000000000002</v>
       </c>
-      <c r="I7" s="31">
+      <c r="I7" s="25">
         <v>36.725000000000001</v>
       </c>
-      <c r="J7" s="31">
+      <c r="J7" s="25">
         <v>38.040999999999997</v>
       </c>
-      <c r="K7" s="31" t="s">
+      <c r="K7" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="L7" s="31">
+      <c r="L7" s="25">
         <v>1546.2</v>
       </c>
-      <c r="M7" s="31" t="s">
+      <c r="M7" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="N7" s="31" t="s">
+      <c r="N7" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="O7" s="31">
+      <c r="O7" s="25">
         <v>0.75979439999999998</v>
       </c>
-      <c r="P7" s="31">
+      <c r="P7" s="25">
         <v>0.73348139999999995</v>
       </c>
-      <c r="Q7" s="31">
+      <c r="Q7" s="25">
         <v>0.4297725</v>
       </c>
-      <c r="S7" s="31">
+      <c r="S7" s="25">
         <v>0.76200259999999997</v>
       </c>
-      <c r="T7" s="31">
+      <c r="T7" s="25">
         <v>0.73644370000000003</v>
       </c>
-      <c r="U7" s="31">
+      <c r="U7" s="25">
         <v>0.42891970000000001</v>
       </c>
-      <c r="W7" s="41">
+      <c r="W7" s="35">
         <v>5.65785154557688E-5</v>
       </c>
-      <c r="X7" s="42">
+      <c r="X7" s="36">
         <v>2.8107236390596598E-5</v>
       </c>
-      <c r="Y7" s="43">
+      <c r="Y7" s="37">
         <v>4.8711468260038703E-5</v>
       </c>
-      <c r="AA7" s="35">
+      <c r="AA7" s="29">
         <f t="shared" si="1"/>
         <v>0.99710210962534773</v>
       </c>
-      <c r="AB7" s="36">
+      <c r="AB7" s="30">
         <f t="shared" si="0"/>
         <v>0.99597756081014732</v>
       </c>
-      <c r="AC7" s="37">
+      <c r="AC7" s="31">
         <f t="shared" si="0"/>
         <v>1.0019882509476716</v>
       </c>
-      <c r="AE7" s="38">
+      <c r="AE7" s="32">
         <f t="shared" si="2"/>
         <v>1.0010419752766739</v>
       </c>
-      <c r="AF7" s="38">
+      <c r="AF7" s="32">
         <f t="shared" si="3"/>
         <v>0.99663201609671503</v>
       </c>
-      <c r="AG7" s="38">
+      <c r="AG7" s="32">
         <f t="shared" si="4"/>
         <v>0.9951628615034982</v>
       </c>
-      <c r="AH7" s="39"/>
-      <c r="AI7" s="40">
+      <c r="AH7" s="33"/>
+      <c r="AI7" s="34">
         <f t="shared" si="5"/>
         <v>3.7376533142238627E-3</v>
       </c>
-      <c r="AJ7" s="40">
+      <c r="AJ7" s="34">
         <f t="shared" si="6"/>
         <v>7.7149533021973731E-3</v>
       </c>
-      <c r="AK7" s="40">
+      <c r="AK7" s="34">
         <f t="shared" si="7"/>
         <v>2.091130965566821E-3</v>
       </c>
-      <c r="AL7" s="58">
+      <c r="AL7" s="67">
+        <v>0.17219999999999999</v>
+      </c>
+      <c r="AM7" s="68">
+        <v>7.9710000000000003E-2</v>
+      </c>
+      <c r="AN7" s="52">
         <f t="shared" si="8"/>
         <v>201205</v>
       </c>
-      <c r="AM7" t="str">
+      <c r="AO7" t="str">
         <f t="shared" si="9"/>
         <v>S2_ref_2</v>
       </c>
-      <c r="AN7" s="64">
-        <v>5.9213907120378897</v>
-      </c>
-      <c r="AO7" s="64">
-        <v>-12.6401691821859</v>
-      </c>
-      <c r="AP7" s="64">
-        <v>18.561559894223802</v>
-      </c>
-      <c r="AQ7" s="64">
-        <v>-3.359389235074</v>
-      </c>
-      <c r="AR7" s="64">
-        <v>17.7807087203796</v>
-      </c>
-      <c r="AS7" s="64">
-        <v>34.745984622457499</v>
-      </c>
-      <c r="AT7" s="31"/>
-      <c r="AU7" s="55"/>
-      <c r="AV7" s="63">
-        <f>AN7*scale_decompression!B$14+scale_decompression!B$15</f>
-        <v>6.1071175625725571</v>
-      </c>
-      <c r="AW7" s="63">
-        <f>AO7*scale_decompression!C$14+scale_decompression!C$15</f>
-        <v>-12.290850793433442</v>
-      </c>
-      <c r="AX7" s="63">
+      <c r="AP7" s="56">
+        <v>5.9666177637003299</v>
+      </c>
+      <c r="AQ7" s="56">
+        <v>-12.685396531691699</v>
+      </c>
+      <c r="AR7" s="56">
+        <v>18.652014295392</v>
+      </c>
+      <c r="AS7" s="56">
+        <v>-3.3593893839957101</v>
+      </c>
+      <c r="AT7" s="56">
+        <v>17.780711602773899</v>
+      </c>
+      <c r="AU7" s="56">
+        <v>34.745990301606</v>
+      </c>
+      <c r="AV7" s="49"/>
+      <c r="AW7" s="55">
+        <f>AP7*scale_decompression!B$14+scale_decompression!B$15</f>
+        <v>6.1070768770247499</v>
+      </c>
+      <c r="AX7" s="55">
+        <f>AQ7*scale_decompression!C$14+scale_decompression!C$15</f>
+        <v>-12.290731459347496</v>
+      </c>
+      <c r="AY7" s="55">
         <f t="shared" si="10"/>
-        <v>18.397968356006</v>
-      </c>
-      <c r="AY7" s="63">
+        <v>18.397808336372247</v>
+      </c>
+      <c r="AZ7" s="55">
         <f t="shared" si="11"/>
-        <v>-3.0918666154304426</v>
-      </c>
-      <c r="AZ7" s="63">
-        <f>AR7*scale_decompression!F$14+scale_decompression!F$15</f>
-        <v>17.036860401960258</v>
-      </c>
-      <c r="BA7" s="63">
-        <f>AS7*scale_decompression!G$14+scale_decompression!G$15</f>
-        <v>33.281126861317787</v>
-      </c>
-      <c r="BB7" s="55"/>
-      <c r="BC7" s="55"/>
+        <v>-3.0918272911613731</v>
+      </c>
+      <c r="BA7" s="55">
+        <f>AT7*scale_decompression!F$14+scale_decompression!F$15</f>
+        <v>17.03686082868844</v>
+      </c>
+      <c r="BB7" s="55">
+        <f>AU7*scale_decompression!G$14+scale_decompression!G$15</f>
+        <v>33.281127707729027</v>
+      </c>
+      <c r="BC7" s="49"/>
+      <c r="BD7" s="49"/>
     </row>
-    <row r="8" spans="1:55">
+    <row r="8" spans="1:56">
       <c r="A8">
         <v>201205</v>
       </c>
       <c r="B8" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="31">
+      <c r="C8" s="25">
         <v>5</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="E8" s="31">
+      <c r="E8" s="25">
         <v>0</v>
       </c>
-      <c r="F8" s="31">
+      <c r="F8" s="25">
         <v>-0.86599999999999999</v>
       </c>
-      <c r="G8" s="31">
+      <c r="G8" s="25">
         <v>42.325000000000003</v>
       </c>
-      <c r="H8" s="31">
+      <c r="H8" s="25">
         <v>1.272</v>
       </c>
-      <c r="I8" s="31">
+      <c r="I8" s="25">
         <v>21.033999999999999</v>
       </c>
-      <c r="J8" s="31">
+      <c r="J8" s="25">
         <v>21.866</v>
       </c>
-      <c r="K8" s="31" t="s">
+      <c r="K8" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="L8" s="31">
+      <c r="L8" s="25">
         <v>1550.8</v>
       </c>
-      <c r="M8" s="31" t="s">
+      <c r="M8" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="N8" s="31" t="s">
+      <c r="N8" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="O8" s="31">
+      <c r="O8" s="25">
         <v>0.76139800000000002</v>
       </c>
-      <c r="P8" s="31">
+      <c r="P8" s="25">
         <v>0.73827319999999996</v>
       </c>
-      <c r="Q8" s="31">
+      <c r="Q8" s="25">
         <v>0.4269908</v>
       </c>
-      <c r="S8" s="31">
+      <c r="S8" s="25">
         <v>0.76200780000000001</v>
       </c>
-      <c r="T8" s="31">
+      <c r="T8" s="25">
         <v>0.73647879999999999</v>
       </c>
-      <c r="U8" s="31">
+      <c r="U8" s="25">
         <v>0.42855359999999998</v>
       </c>
-      <c r="AA8" s="35">
+      <c r="AA8" s="29">
         <f t="shared" si="1"/>
         <v>0.99919974572438763</v>
       </c>
-      <c r="AB8" s="36">
+      <c r="AB8" s="30">
         <f t="shared" si="0"/>
         <v>1.0024364584561021</v>
       </c>
-      <c r="AC8" s="37">
+      <c r="AC8" s="31">
         <f t="shared" si="0"/>
         <v>0.99635331496456925</v>
       </c>
-      <c r="AE8" s="38">
+      <c r="AE8" s="32">
         <f t="shared" si="2"/>
         <v>0.99629481277958798</v>
       </c>
-      <c r="AF8" s="38">
+      <c r="AF8" s="32">
         <f t="shared" si="3"/>
         <v>0.99917068284195976</v>
       </c>
-      <c r="AG8" s="38">
+      <c r="AG8" s="32">
         <f t="shared" si="4"/>
         <v>1.0023860907979212</v>
       </c>
-      <c r="AH8" s="39"/>
-      <c r="AI8" s="40">
+      <c r="AH8" s="33"/>
+      <c r="AI8" s="34">
         <f t="shared" si="5"/>
         <v>3.7199285353648262E-3</v>
       </c>
-      <c r="AJ8" s="40">
+      <c r="AJ8" s="34">
         <f t="shared" si="6"/>
         <v>7.7346051848110903E-3</v>
       </c>
-      <c r="AK8" s="40">
+      <c r="AK8" s="34">
         <f t="shared" si="7"/>
         <v>2.1063091027675373E-3</v>
       </c>
-      <c r="AL8" s="58">
+      <c r="AL8" s="67">
+        <v>0.17219999999999999</v>
+      </c>
+      <c r="AM8" s="68">
+        <v>7.9710000000000003E-2</v>
+      </c>
+      <c r="AN8" s="52">
         <f t="shared" si="8"/>
         <v>201205</v>
       </c>
-      <c r="AM8" t="str">
+      <c r="AO8" t="str">
         <f t="shared" si="9"/>
         <v>B6_ref_2</v>
       </c>
-      <c r="AN8" s="64">
-        <v>-1.58436029364894</v>
-      </c>
-      <c r="AO8" s="64">
-        <v>-0.18319362963625699</v>
-      </c>
-      <c r="AP8" s="64">
-        <v>-1.4011666640126801</v>
-      </c>
-      <c r="AQ8" s="64">
-        <v>-0.883776961642601</v>
-      </c>
-      <c r="AR8" s="64">
-        <v>21.5940953146835</v>
-      </c>
-      <c r="AS8" s="64">
-        <v>42.272658245997299</v>
-      </c>
-      <c r="AT8" s="31"/>
-      <c r="AU8" s="55"/>
-      <c r="AV8" s="63">
-        <f>AN8*scale_decompression!B$14+scale_decompression!B$15</f>
-        <v>-1.4852873219744862</v>
-      </c>
-      <c r="AW8" s="63">
-        <f>AO8*scale_decompression!C$14+scale_decompression!C$15</f>
-        <v>-0.62497917347232335</v>
-      </c>
-      <c r="AX8" s="63">
+      <c r="AP8" s="56">
+        <v>-1.5393539977537301</v>
+      </c>
+      <c r="AQ8" s="56">
+        <v>-0.228199904068526</v>
+      </c>
+      <c r="AR8" s="56">
+        <v>-1.3111540936852</v>
+      </c>
+      <c r="AS8" s="56">
+        <v>-0.88377695091112995</v>
+      </c>
+      <c r="AT8" s="56">
+        <v>21.594095106974599</v>
+      </c>
+      <c r="AU8" s="56">
+        <v>42.272657835312501</v>
+      </c>
+      <c r="AV8" s="49"/>
+      <c r="AW8" s="55">
+        <f>AP8*scale_decompression!B$14+scale_decompression!B$15</f>
+        <v>-1.4852735694807522</v>
+      </c>
+      <c r="AX8" s="55">
+        <f>AQ8*scale_decompression!C$14+scale_decompression!C$15</f>
+        <v>-0.62474349610053348</v>
+      </c>
+      <c r="AY8" s="55">
         <f t="shared" si="10"/>
-        <v>-0.86030814850216286</v>
-      </c>
-      <c r="AY8" s="63">
+        <v>-0.8605300733802187</v>
+      </c>
+      <c r="AZ8" s="55">
         <f t="shared" si="11"/>
-        <v>-1.0551332477234048</v>
-      </c>
-      <c r="AZ8" s="63">
-        <f>AR8*scale_decompression!F$14+scale_decompression!F$15</f>
-        <v>20.716783175561588</v>
-      </c>
-      <c r="BA8" s="63">
-        <f>AS8*scale_decompression!G$14+scale_decompression!G$15</f>
-        <v>40.53834309901805</v>
-      </c>
-      <c r="BB8" s="55"/>
-      <c r="BC8" s="55"/>
+        <v>-1.0550085327906429</v>
+      </c>
+      <c r="BA8" s="55">
+        <f>AT8*scale_decompression!F$14+scale_decompression!F$15</f>
+        <v>20.716781254015224</v>
+      </c>
+      <c r="BB8" s="55">
+        <f>AU8*scale_decompression!G$14+scale_decompression!G$15</f>
+        <v>40.538339303188351</v>
+      </c>
+      <c r="BC8" s="49"/>
+      <c r="BD8" s="49"/>
     </row>
-    <row r="9" spans="1:55">
+    <row r="9" spans="1:56">
       <c r="A9">
         <v>201205</v>
       </c>
       <c r="B9" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="31">
+      <c r="C9" s="25">
         <v>6</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="31">
+      <c r="E9" s="25">
         <v>0</v>
       </c>
-      <c r="F9" s="31">
+      <c r="F9" s="25">
         <v>4.8410000000000002</v>
       </c>
-      <c r="G9" s="31">
+      <c r="G9" s="25">
         <v>44.902999999999999</v>
       </c>
-      <c r="H9" s="31">
+      <c r="H9" s="25">
         <v>2.5489999999999999</v>
       </c>
-      <c r="I9" s="31">
+      <c r="I9" s="25">
         <v>4.9820000000000002</v>
       </c>
-      <c r="J9" s="31">
+      <c r="J9" s="25">
         <v>5.1920000000000002</v>
       </c>
-      <c r="K9" s="31" t="s">
+      <c r="K9" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="L9" s="31">
+      <c r="L9" s="25">
         <v>1550.5</v>
       </c>
-      <c r="M9" s="31" t="s">
+      <c r="M9" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="N9" s="31" t="s">
+      <c r="N9" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="O9" s="31">
+      <c r="O9" s="25">
         <v>0.76554029999999995</v>
       </c>
-      <c r="P9" s="31">
+      <c r="P9" s="25">
         <v>0.74014409999999997</v>
       </c>
-      <c r="Q9" s="31">
+      <c r="Q9" s="25">
         <v>0.4323824</v>
       </c>
-      <c r="S9" s="31">
+      <c r="S9" s="25">
         <v>0.76198030000000005</v>
       </c>
-      <c r="T9" s="31">
+      <c r="T9" s="25">
         <v>0.73647640000000003</v>
       </c>
-      <c r="U9" s="31">
+      <c r="U9" s="25">
         <v>0.42850050000000001</v>
       </c>
-      <c r="AA9" s="35">
+      <c r="AA9" s="29">
         <f t="shared" si="1"/>
         <v>1.0046720367967517</v>
       </c>
-      <c r="AB9" s="36">
+      <c r="AB9" s="30">
         <f t="shared" si="0"/>
         <v>1.004980064534315</v>
       </c>
-      <c r="AC9" s="37">
+      <c r="AC9" s="31">
         <f t="shared" si="0"/>
         <v>1.0090592659751856</v>
       </c>
-      <c r="AE9" s="38">
+      <c r="AE9" s="32">
         <f t="shared" si="2"/>
         <v>1.0099089621203003</v>
       </c>
-      <c r="AF9" s="38">
+      <c r="AF9" s="32">
         <f t="shared" si="3"/>
         <v>1.0050941512728657</v>
       </c>
-      <c r="AG9" s="38">
+      <c r="AG9" s="32">
         <f t="shared" si="4"/>
         <v>1.0057116133646442</v>
       </c>
-      <c r="AI9" s="40">
+      <c r="AI9" s="34">
         <f t="shared" si="5"/>
         <v>3.770760540076305E-3</v>
       </c>
-      <c r="AJ9" s="40">
+      <c r="AJ9" s="34">
         <f t="shared" si="6"/>
         <v>7.7804589017230353E-3</v>
       </c>
-      <c r="AK9" s="40">
+      <c r="AK9" s="34">
         <f t="shared" si="7"/>
         <v>2.1132970074462343E-3</v>
       </c>
-      <c r="AL9" s="58">
+      <c r="AL9" s="67">
+        <v>0.17219999999999999</v>
+      </c>
+      <c r="AM9" s="68">
+        <v>7.9710000000000003E-2</v>
+      </c>
+      <c r="AN9" s="52">
         <f t="shared" si="8"/>
         <v>201205</v>
       </c>
-      <c r="AM9" s="52" t="str">
+      <c r="AO9" s="46" t="str">
         <f t="shared" si="9"/>
         <v>ATM_EQ_SW_2</v>
       </c>
-      <c r="AN9" s="64">
-        <v>15.3570170153258</v>
-      </c>
-      <c r="AO9" s="64">
-        <v>-4.8295569856192602</v>
-      </c>
-      <c r="AP9" s="64">
-        <v>20.1865740009451</v>
-      </c>
-      <c r="AQ9" s="64">
-        <v>5.2637300148532997</v>
-      </c>
-      <c r="AR9" s="64">
-        <v>23.307962421212899</v>
-      </c>
-      <c r="AS9" s="64">
-        <v>45.664003224382199</v>
-      </c>
-      <c r="AT9" s="60"/>
-      <c r="AV9" s="63">
-        <f>AN9*scale_decompression!B$14+scale_decompression!B$15</f>
-        <v>15.6516781507889</v>
-      </c>
-      <c r="AW9" s="63">
-        <f>AO9*scale_decompression!C$14+scale_decompression!C$15</f>
-        <v>-4.9762663845558501</v>
-      </c>
-      <c r="AX9" s="63">
+      <c r="AP9" s="56">
+        <v>15.402658196560701</v>
+      </c>
+      <c r="AQ9" s="56">
+        <v>-4.8751984513626301</v>
+      </c>
+      <c r="AR9" s="56">
+        <v>20.277856647923301</v>
+      </c>
+      <c r="AS9" s="56">
+        <v>5.2637298725990398</v>
+      </c>
+      <c r="AT9" s="56">
+        <v>23.307965174557999</v>
+      </c>
+      <c r="AU9" s="56">
+        <v>45.664008676895797</v>
+      </c>
+      <c r="AW9" s="55">
+        <f>AP9*scale_decompression!B$14+scale_decompression!B$15</f>
+        <v>15.651707215441176</v>
+      </c>
+      <c r="AX9" s="55">
+        <f>AQ9*scale_decompression!C$14+scale_decompression!C$15</f>
+        <v>-4.9765917279689527</v>
+      </c>
+      <c r="AY9" s="55">
         <f t="shared" si="10"/>
-        <v>20.627944535344749</v>
-      </c>
-      <c r="AY9" s="63">
+        <v>20.62829894341013</v>
+      </c>
+      <c r="AZ9" s="55">
         <f t="shared" si="11"/>
-        <v>5.3377058831165254</v>
-      </c>
-      <c r="AZ9" s="63">
-        <f>AR9*scale_decompression!F$14+scale_decompression!F$15</f>
-        <v>22.370667050242545</v>
-      </c>
-      <c r="BA9" s="63">
-        <f>AS9*scale_decompression!G$14+scale_decompression!G$15</f>
-        <v>43.808276814199289</v>
+        <v>5.3375577437361112</v>
+      </c>
+      <c r="BA9" s="55">
+        <f>AT9*scale_decompression!F$14+scale_decompression!F$15</f>
+        <v>22.370668270914745</v>
+      </c>
+      <c r="BB9" s="55">
+        <f>AU9*scale_decompression!G$14+scale_decompression!G$15</f>
+        <v>43.808279225682703</v>
       </c>
     </row>
-    <row r="10" spans="1:55">
+    <row r="10" spans="1:56">
       <c r="A10">
         <v>201205</v>
       </c>
-      <c r="C10" s="31">
+      <c r="C10" s="25">
         <v>7</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="31">
+      <c r="E10" s="25">
         <v>0</v>
       </c>
-      <c r="F10" s="31">
+      <c r="F10" s="25">
         <v>-9.7609999999999992</v>
       </c>
-      <c r="G10" s="31">
+      <c r="G10" s="25">
         <v>44.924999999999997</v>
       </c>
-      <c r="H10" s="31">
+      <c r="H10" s="25">
         <v>2.56</v>
       </c>
-      <c r="I10" s="31">
+      <c r="I10" s="25">
         <v>17.010000000000002</v>
       </c>
-      <c r="J10" s="31">
+      <c r="J10" s="25">
         <v>17.718</v>
       </c>
-      <c r="K10" s="31" t="s">
+      <c r="K10" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="L10" s="31">
+      <c r="L10" s="25">
         <v>1550.8</v>
       </c>
-      <c r="M10" s="31" t="s">
+      <c r="M10" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="N10" s="31" t="s">
+      <c r="N10" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="O10" s="31">
+      <c r="O10" s="25">
         <v>0.75499110000000003</v>
       </c>
-      <c r="P10" s="31">
+      <c r="P10" s="25">
         <v>0.74002369999999995</v>
       </c>
-      <c r="Q10" s="31">
+      <c r="Q10" s="25">
         <v>0.4309752</v>
       </c>
-      <c r="S10" s="31">
+      <c r="S10" s="25">
         <v>0.76196830000000004</v>
       </c>
-      <c r="T10" s="31">
+      <c r="T10" s="25">
         <v>0.73649430000000005</v>
       </c>
-      <c r="U10" s="31">
+      <c r="U10" s="25">
         <v>0.42850440000000001</v>
       </c>
-      <c r="AA10" s="35">
+      <c r="AA10" s="29">
         <f t="shared" si="1"/>
         <v>0.99084318862083898</v>
       </c>
-      <c r="AB10" s="36">
+      <c r="AB10" s="30">
         <f t="shared" si="0"/>
         <v>1.0047921620031546</v>
       </c>
-      <c r="AC10" s="37">
+      <c r="AC10" s="31">
         <f t="shared" si="0"/>
         <v>1.0057661018183244</v>
       </c>
-      <c r="AE10" s="38">
+      <c r="AE10" s="32">
         <f t="shared" si="2"/>
         <v>1.0059352715795371</v>
       </c>
-      <c r="AF10" s="38">
+      <c r="AF10" s="32">
         <f t="shared" si="3"/>
         <v>0.99092722925764687</v>
       </c>
-      <c r="AG10" s="38">
+      <c r="AG10" s="32">
         <f t="shared" si="4"/>
         <v>1.0049378092932522</v>
       </c>
-      <c r="AI10" s="40">
+      <c r="AI10" s="34">
         <f t="shared" si="5"/>
         <v>3.7559237220544848E-3</v>
       </c>
-      <c r="AJ10" s="40">
+      <c r="AJ10" s="34">
         <f t="shared" si="6"/>
         <v>7.6707924049438676E-3</v>
       </c>
-      <c r="AK10" s="40">
+      <c r="AK10" s="34">
         <f t="shared" si="7"/>
         <v>2.1116710166485821E-3</v>
       </c>
-      <c r="AL10" s="58">
+      <c r="AL10" s="67">
+        <v>0.17219999999999999</v>
+      </c>
+      <c r="AM10" s="68">
+        <v>7.9710000000000003E-2</v>
+      </c>
+      <c r="AN10" s="52">
         <f t="shared" si="8"/>
         <v>201205</v>
       </c>
-      <c r="AM10" t="str">
+      <c r="AO10" t="str">
         <f t="shared" si="9"/>
         <v>DI</v>
       </c>
-      <c r="AN10" s="64">
-        <v>13.189529284932201</v>
-      </c>
-      <c r="AO10" s="64">
-        <v>-32.4605382585111</v>
-      </c>
-      <c r="AP10" s="64">
-        <v>45.650067543443299</v>
-      </c>
-      <c r="AQ10" s="64">
-        <v>-9.6355044867894595</v>
-      </c>
-      <c r="AR10" s="64">
-        <v>23.012027994814499</v>
-      </c>
-      <c r="AS10" s="64">
-        <v>45.078036862881099</v>
-      </c>
-      <c r="AT10" s="60"/>
-      <c r="AV10" s="63">
-        <f>AN10*scale_decompression!B$14+scale_decompression!B$15</f>
-        <v>13.459166779312852</v>
-      </c>
-      <c r="AW10" s="63">
-        <f>AO10*scale_decompression!C$14+scale_decompression!C$15</f>
-        <v>-30.852489622156323</v>
-      </c>
-      <c r="AX10" s="63">
+      <c r="AP10" s="56">
+        <v>13.2349244797742</v>
+      </c>
+      <c r="AQ10" s="56">
+        <v>-32.505934182943498</v>
+      </c>
+      <c r="AR10" s="56">
+        <v>45.740858662717798</v>
+      </c>
+      <c r="AS10" s="56">
+        <v>-9.6355048515846509</v>
+      </c>
+      <c r="AT10" s="56">
+        <v>23.0120350554621</v>
+      </c>
+      <c r="AU10" s="56">
+        <v>45.078050841453397</v>
+      </c>
+      <c r="AW10" s="55">
+        <f>AP10*scale_decompression!B$14+scale_decompression!B$15</f>
+        <v>13.459027230010385</v>
+      </c>
+      <c r="AX10" s="55">
+        <f>AQ10*scale_decompression!C$14+scale_decompression!C$15</f>
+        <v>-30.852383858078603</v>
+      </c>
+      <c r="AY10" s="55">
         <f t="shared" si="10"/>
-        <v>44.311656401469179</v>
-      </c>
-      <c r="AY10" s="63">
+        <v>44.311411088088988</v>
+      </c>
+      <c r="AZ10" s="55">
         <f t="shared" si="11"/>
-        <v>-8.6966614214217355</v>
-      </c>
-      <c r="AZ10" s="63">
-        <f>AR10*scale_decompression!F$14+scale_decompression!F$15</f>
-        <v>22.085089963245178</v>
-      </c>
-      <c r="BA10" s="63">
-        <f>AS10*scale_decompression!G$14+scale_decompression!G$15</f>
-        <v>43.243288240743389</v>
+        <v>-8.6966783140341093</v>
+      </c>
+      <c r="BA10" s="55">
+        <f>AT10*scale_decompression!F$14+scale_decompression!F$15</f>
+        <v>22.085095291294213</v>
+      </c>
+      <c r="BB10" s="55">
+        <f>AU10*scale_decompression!G$14+scale_decompression!G$15</f>
+        <v>43.243298777326338</v>
       </c>
     </row>
-    <row r="11" spans="1:55">
+    <row r="11" spans="1:56">
       <c r="A11">
         <v>201207</v>
       </c>
       <c r="B11" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="31">
+      <c r="C11" s="25">
         <v>1</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="31">
+      <c r="E11" s="25">
         <v>0</v>
       </c>
       <c r="F11">
@@ -4056,14 +4109,14 @@
       <c r="K11" t="s">
         <v>52</v>
       </c>
-      <c r="L11" s="31">
+      <c r="L11" s="25">
         <v>1550.3</v>
       </c>
-      <c r="M11" s="31" t="s">
+      <c r="M11" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="N11" s="25" t="s">
         <v>84</v>
-      </c>
-      <c r="N11" s="31" t="s">
-        <v>85</v>
       </c>
       <c r="O11">
         <v>0.76570720000000003</v>
@@ -4083,108 +4136,113 @@
       <c r="U11">
         <v>0.42918780000000001</v>
       </c>
-      <c r="AA11" s="35">
+      <c r="AA11" s="29">
         <f t="shared" si="1"/>
         <v>1.0052879196564961</v>
       </c>
-      <c r="AB11" s="36">
+      <c r="AB11" s="30">
         <f t="shared" si="0"/>
         <v>1.0047150168567116</v>
       </c>
-      <c r="AC11" s="37">
+      <c r="AC11" s="31">
         <f t="shared" si="0"/>
         <v>1.0099504226354989</v>
       </c>
-      <c r="AE11" s="38">
+      <c r="AE11" s="32">
         <f t="shared" si="2"/>
         <v>1.0108187331121987</v>
       </c>
-      <c r="AF11" s="38">
+      <c r="AF11" s="32">
         <f t="shared" si="3"/>
         <v>1.0057192814133826</v>
       </c>
-      <c r="AG11" s="38">
+      <c r="AG11" s="32">
         <f t="shared" si="4"/>
         <v>1.0054625917600983</v>
       </c>
-      <c r="AI11" s="40">
+      <c r="AI11" s="34">
         <f t="shared" si="5"/>
         <v>3.7741574091857285E-3</v>
       </c>
-      <c r="AJ11" s="40">
+      <c r="AJ11" s="34">
         <f t="shared" si="6"/>
         <v>7.7852980497375374E-3</v>
       </c>
-      <c r="AK11" s="40">
+      <c r="AK11" s="34">
         <f t="shared" si="7"/>
         <v>2.1127737395385329E-3</v>
       </c>
-      <c r="AL11" s="58">
+      <c r="AL11" s="67">
+        <v>0.17219999999999999</v>
+      </c>
+      <c r="AM11" s="68">
+        <v>7.9710000000000003E-2</v>
+      </c>
+      <c r="AN11" s="52">
         <f t="shared" si="8"/>
         <v>201207</v>
       </c>
-      <c r="AM11" s="52" t="str">
+      <c r="AO11" s="46" t="str">
         <f t="shared" si="9"/>
         <v>ATM_EQ_SW_1</v>
       </c>
-      <c r="AN11" s="64">
-        <v>16.467420459830699</v>
-      </c>
-      <c r="AO11" s="64">
-        <v>-4.6096001622838401</v>
-      </c>
-      <c r="AP11" s="64">
-        <v>21.0770206221145</v>
-      </c>
-      <c r="AQ11" s="64">
-        <v>5.9289101487734399</v>
-      </c>
-      <c r="AR11" s="64">
-        <v>23.171290901832201</v>
-      </c>
-      <c r="AS11" s="64">
-        <v>45.393366379958998</v>
-      </c>
-      <c r="AT11" s="55"/>
-      <c r="AV11" s="63">
-        <f>AN11*scale_decompression!B$14+scale_decompression!B$15</f>
-        <v>16.774901200619524</v>
-      </c>
-      <c r="AW11" s="63">
-        <f>AO11*scale_decompression!C$14+scale_decompression!C$15</f>
-        <v>-4.7702783377670546</v>
-      </c>
-      <c r="AX11" s="63">
+      <c r="AP11" s="56">
+        <v>16.513078603794501</v>
+      </c>
+      <c r="AQ11" s="56">
+        <v>-4.6552586604420298</v>
+      </c>
+      <c r="AR11" s="56">
+        <v>21.168337264236602</v>
+      </c>
+      <c r="AS11" s="56">
+        <v>5.9289099716762701</v>
+      </c>
+      <c r="AT11" s="56">
+        <v>23.1712943295652</v>
+      </c>
+      <c r="AU11" s="56">
+        <v>45.393373167128303</v>
+      </c>
+      <c r="AW11" s="55">
+        <f>AP11*scale_decompression!B$14+scale_decompression!B$15</f>
+        <v>16.77490633510282</v>
+      </c>
+      <c r="AX11" s="55">
+        <f>AQ11*scale_decompression!C$14+scale_decompression!C$15</f>
+        <v>-4.7706212331443609</v>
+      </c>
+      <c r="AY11" s="55">
         <f t="shared" si="10"/>
-        <v>21.545179538386577</v>
-      </c>
-      <c r="AY11" s="63">
+        <v>21.545527568247181</v>
+      </c>
+      <c r="AZ11" s="55">
         <f t="shared" si="11"/>
-        <v>6.0023114314262349</v>
-      </c>
-      <c r="AZ11" s="63">
-        <f>AR11*scale_decompression!F$14+scale_decompression!F$15</f>
-        <v>22.238778865230575</v>
-      </c>
-      <c r="BA11" s="63">
-        <f>AS11*scale_decompression!G$14+scale_decompression!G$15</f>
-        <v>43.547328857624507</v>
+        <v>6.0021425509792294</v>
+      </c>
+      <c r="BA11" s="55">
+        <f>AT11*scale_decompression!F$14+scale_decompression!F$15</f>
+        <v>22.238780713977015</v>
+      </c>
+      <c r="BB11" s="55">
+        <f>AU11*scale_decompression!G$14+scale_decompression!G$15</f>
+        <v>43.547332511770854</v>
       </c>
     </row>
-    <row r="12" spans="1:55">
+    <row r="12" spans="1:56">
       <c r="A12">
         <v>201207</v>
       </c>
       <c r="B12" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="31">
+      <c r="C12" s="25">
         <v>2</v>
       </c>
-      <c r="D12" s="31" t="s">
+      <c r="D12" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="31">
+      <c r="E12" s="25">
         <v>0</v>
       </c>
       <c r="F12">
@@ -4205,14 +4263,14 @@
       <c r="K12" t="s">
         <v>49</v>
       </c>
-      <c r="L12" s="31">
+      <c r="L12" s="25">
         <v>1549.8</v>
       </c>
-      <c r="M12" s="31" t="s">
+      <c r="M12" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="N12" s="25" t="s">
         <v>86</v>
-      </c>
-      <c r="N12" s="31" t="s">
-        <v>87</v>
       </c>
       <c r="O12">
         <v>0.75864030000000005</v>
@@ -4232,108 +4290,113 @@
       <c r="U12">
         <v>0.42925489999999999</v>
       </c>
-      <c r="AA12" s="35">
+      <c r="AA12" s="29">
         <f t="shared" si="1"/>
         <v>0.99606571006022826</v>
       </c>
-      <c r="AB12" s="36">
+      <c r="AB12" s="30">
         <f t="shared" si="0"/>
         <v>0.99318137398512774</v>
       </c>
-      <c r="AC12" s="37">
+      <c r="AC12" s="31">
         <f t="shared" si="0"/>
         <v>1.0004901516558111</v>
       </c>
-      <c r="AE12" s="38">
+      <c r="AE12" s="32">
         <f t="shared" si="2"/>
         <v>1.0011869726521643</v>
       </c>
-      <c r="AF12" s="38">
+      <c r="AF12" s="32">
         <f t="shared" si="3"/>
         <v>0.99641187878361481</v>
       </c>
-      <c r="AG12" s="38">
+      <c r="AG12" s="32">
         <f t="shared" si="4"/>
         <v>0.99378130442821833</v>
       </c>
-      <c r="AI12" s="40">
+      <c r="AI12" s="34">
         <f t="shared" si="5"/>
         <v>3.7381947000342886E-3</v>
       </c>
-      <c r="AJ12" s="40">
+      <c r="AJ12" s="34">
         <f t="shared" si="6"/>
         <v>7.7132492137643215E-3</v>
       </c>
-      <c r="AK12" s="40">
+      <c r="AK12" s="34">
         <f t="shared" si="7"/>
         <v>2.0882279062862017E-3</v>
       </c>
-      <c r="AL12" s="58">
+      <c r="AL12" s="67">
+        <v>0.17219999999999999</v>
+      </c>
+      <c r="AM12" s="68">
+        <v>7.9710000000000003E-2</v>
+      </c>
+      <c r="AN12" s="52">
         <f t="shared" si="8"/>
         <v>201207</v>
       </c>
-      <c r="AM12" s="52" t="str">
+      <c r="AO12" s="46" t="str">
         <f t="shared" si="9"/>
         <v>S2_ref_1</v>
       </c>
-      <c r="AN12" s="64">
-        <v>6.26118963247845</v>
-      </c>
-      <c r="AO12" s="64">
-        <v>-13.3677308440912</v>
-      </c>
-      <c r="AP12" s="64">
-        <v>19.6289204765697</v>
-      </c>
-      <c r="AQ12" s="64">
-        <v>-3.5532706058064001</v>
-      </c>
-      <c r="AR12" s="64">
-        <v>17.047677096118001</v>
-      </c>
-      <c r="AS12" s="64">
-        <v>33.3021886649449</v>
-      </c>
-      <c r="AT12" s="55"/>
-      <c r="AV12" s="63">
-        <f>AN12*scale_decompression!B$14+scale_decompression!B$15</f>
-        <v>6.4508394608025981</v>
-      </c>
-      <c r="AW12" s="63">
-        <f>AO12*scale_decompression!C$14+scale_decompression!C$15</f>
-        <v>-12.972207267770873</v>
-      </c>
-      <c r="AX12" s="63">
+      <c r="AP12" s="56">
+        <v>6.3064257151912404</v>
+      </c>
+      <c r="AQ12" s="56">
+        <v>-13.412967242059199</v>
+      </c>
+      <c r="AR12" s="56">
+        <v>19.719392957250399</v>
+      </c>
+      <c r="AS12" s="56">
+        <v>-3.5532707634339702</v>
+      </c>
+      <c r="AT12" s="56">
+        <v>17.047680147015601</v>
+      </c>
+      <c r="AU12" s="56">
+        <v>33.3021946720324</v>
+      </c>
+      <c r="AW12" s="55">
+        <f>AP12*scale_decompression!B$14+scale_decompression!B$15</f>
+        <v>6.4507953367020274</v>
+      </c>
+      <c r="AX12" s="55">
+        <f>AQ12*scale_decompression!C$14+scale_decompression!C$15</f>
+        <v>-12.972091110582108</v>
+      </c>
+      <c r="AY12" s="55">
         <f t="shared" si="10"/>
-        <v>19.423046728573471</v>
-      </c>
-      <c r="AY12" s="63">
+        <v>19.422886447284135</v>
+      </c>
+      <c r="AZ12" s="55">
         <f t="shared" si="11"/>
-        <v>-3.2606839034841375</v>
-      </c>
-      <c r="AZ12" s="63">
-        <f>AR12*scale_decompression!F$14+scale_decompression!F$15</f>
-        <v>16.329483979145031</v>
-      </c>
-      <c r="BA12" s="63">
-        <f>AS12*scale_decompression!G$14+scale_decompression!G$15</f>
-        <v>31.889019272911604</v>
+        <v>-3.2606478869400402</v>
+      </c>
+      <c r="BA12" s="55">
+        <f>AT12*scale_decompression!F$14+scale_decompression!F$15</f>
+        <v>16.329484446669554</v>
+      </c>
+      <c r="BB12" s="55">
+        <f>AU12*scale_decompression!G$14+scale_decompression!G$15</f>
+        <v>31.889020199659626</v>
       </c>
     </row>
-    <row r="13" spans="1:55">
+    <row r="13" spans="1:56">
       <c r="A13">
         <v>201207</v>
       </c>
       <c r="B13" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="31">
+      <c r="C13" s="25">
         <v>3</v>
       </c>
-      <c r="D13" s="31" t="s">
+      <c r="D13" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="E13" s="31">
+      <c r="E13" s="25">
         <v>0</v>
       </c>
       <c r="F13">
@@ -4352,16 +4415,16 @@
         <v>21.38</v>
       </c>
       <c r="K13" t="s">
-        <v>99</v>
-      </c>
-      <c r="L13" s="31">
+        <v>98</v>
+      </c>
+      <c r="L13" s="25">
         <v>1548.9</v>
       </c>
-      <c r="M13" s="31" t="s">
+      <c r="M13" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="N13" s="25" t="s">
         <v>88</v>
-      </c>
-      <c r="N13" s="31" t="s">
-        <v>89</v>
       </c>
       <c r="O13">
         <v>0.76178389999999996</v>
@@ -4381,2091 +4444,2123 @@
       <c r="U13">
         <v>0.4290465</v>
       </c>
-      <c r="AA13" s="35">
+      <c r="AA13" s="29">
         <f t="shared" si="1"/>
         <v>1.0001949751810382</v>
       </c>
-      <c r="AB13" s="36">
+      <c r="AB13" s="30">
         <f t="shared" si="0"/>
         <v>1.0040608534246187</v>
       </c>
-      <c r="AC13" s="37">
+      <c r="AC13" s="31">
         <f t="shared" si="0"/>
         <v>0.9974865195264383</v>
       </c>
-      <c r="AE13" s="38">
+      <c r="AE13" s="32">
         <f t="shared" si="2"/>
         <v>0.99745574081403032</v>
       </c>
-      <c r="AF13" s="38">
+      <c r="AF13" s="32">
         <f t="shared" si="3"/>
         <v>1.0001796848444418</v>
       </c>
-      <c r="AG13" s="38">
+      <c r="AG13" s="32">
         <f t="shared" si="4"/>
         <v>1.0040343543858852</v>
       </c>
-      <c r="AI13" s="40">
+      <c r="AI13" s="34">
         <f t="shared" si="5"/>
         <v>3.7242631653031056E-3</v>
       </c>
-      <c r="AJ13" s="40">
+      <c r="AJ13" s="34">
         <f t="shared" si="6"/>
         <v>7.7424158944865221E-3</v>
       </c>
-      <c r="AK13" s="40">
+      <c r="AK13" s="34">
         <f t="shared" si="7"/>
         <v>2.1097725911688229E-3</v>
       </c>
-      <c r="AL13" s="58">
+      <c r="AL13" s="67">
+        <v>0.17219999999999999</v>
+      </c>
+      <c r="AM13" s="68">
+        <v>7.9710000000000003E-2</v>
+      </c>
+      <c r="AN13" s="52">
         <f t="shared" si="8"/>
         <v>201207</v>
       </c>
-      <c r="AM13" s="52" t="str">
+      <c r="AO13" s="46" t="str">
         <f t="shared" si="9"/>
         <v>B6_ref_1</v>
       </c>
-      <c r="AN13" s="64">
-        <v>-0.344641487913244</v>
-      </c>
-      <c r="AO13" s="64">
-        <v>0.61220577119724895</v>
-      </c>
-      <c r="AP13" s="64">
-        <v>-0.95684725911049295</v>
-      </c>
-      <c r="AQ13" s="64">
-        <v>0.133782141642002</v>
-      </c>
-      <c r="AR13" s="64">
-        <v>22.4590534325555</v>
-      </c>
-      <c r="AS13" s="64">
-        <v>43.983543024889798</v>
-      </c>
-      <c r="AT13" s="55"/>
-      <c r="AV13" s="63">
-        <f>AN13*scale_decompression!B$14+scale_decompression!B$15</f>
-        <v>-0.23125596535193599</v>
-      </c>
-      <c r="AW13" s="63">
-        <f>AO13*scale_decompression!C$14+scale_decompression!C$15</f>
-        <v>0.11990687511741482</v>
-      </c>
-      <c r="AX13" s="63">
+      <c r="AP13" s="56">
+        <v>-0.29958193467383099</v>
+      </c>
+      <c r="AQ13" s="56">
+        <v>0.56714623241393902</v>
+      </c>
+      <c r="AR13" s="56">
+        <v>-0.86672816708777101</v>
+      </c>
+      <c r="AS13" s="56">
+        <v>0.13378214887005399</v>
+      </c>
+      <c r="AT13" s="56">
+        <v>22.459053292656701</v>
+      </c>
+      <c r="AU13" s="56">
+        <v>43.9835427480606</v>
+      </c>
+      <c r="AW13" s="55">
+        <f>AP13*scale_decompression!B$14+scale_decompression!B$15</f>
+        <v>-0.23123421577203668</v>
+      </c>
+      <c r="AX13" s="55">
+        <f>AQ13*scale_decompression!C$14+scale_decompression!C$15</f>
+        <v>0.12008688044219795</v>
+      </c>
+      <c r="AY13" s="55">
         <f t="shared" si="10"/>
-        <v>-0.35116284046935081</v>
-      </c>
-      <c r="AY13" s="63">
+        <v>-0.35132109621423463</v>
+      </c>
+      <c r="AZ13" s="55">
         <f t="shared" si="11"/>
-        <v>-5.5674545117260582E-2</v>
-      </c>
-      <c r="AZ13" s="63">
-        <f>AR13*scale_decompression!F$14+scale_decompression!F$15</f>
-        <v>21.55146882765964</v>
-      </c>
-      <c r="BA13" s="63">
-        <f>AS13*scale_decompression!G$14+scale_decompression!G$15</f>
-        <v>42.187977641345064</v>
+        <v>-5.5573667664919363E-2</v>
+      </c>
+      <c r="BA13" s="55">
+        <f>AT13*scale_decompression!F$14+scale_decompression!F$15</f>
+        <v>21.551467115282232</v>
+      </c>
+      <c r="BB13" s="55">
+        <f>AU13*scale_decompression!G$14+scale_decompression!G$15</f>
+        <v>42.187974254073119</v>
       </c>
     </row>
-    <row r="14" spans="1:55">
+    <row r="14" spans="1:56">
       <c r="A14">
         <v>201207</v>
       </c>
       <c r="B14" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="31">
+      <c r="C14" s="25">
         <v>13</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="E14" s="31">
+      <c r="E14" s="25">
         <v>0</v>
       </c>
-      <c r="F14" s="31">
+      <c r="F14" s="25">
         <v>4.6219999999999999</v>
       </c>
-      <c r="G14" s="31">
+      <c r="G14" s="25">
         <v>44.531999999999996</v>
       </c>
-      <c r="H14" s="31">
+      <c r="H14" s="25">
         <v>2.3650000000000002</v>
       </c>
-      <c r="I14" s="31">
+      <c r="I14" s="25">
         <v>4.851</v>
       </c>
-      <c r="J14" s="31">
+      <c r="J14" s="25">
         <v>5.0419999999999998</v>
       </c>
-      <c r="K14" s="31" t="s">
+      <c r="K14" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="L14" s="31">
+      <c r="L14" s="25">
         <v>1554.3</v>
       </c>
-      <c r="M14" s="31" t="s">
+      <c r="M14" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="N14" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="N14" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="O14" s="31">
+      <c r="O14" s="25">
         <v>0.76493789999999995</v>
       </c>
-      <c r="P14" s="31">
+      <c r="P14" s="25">
         <v>0.73974450000000003</v>
       </c>
-      <c r="Q14" s="31">
+      <c r="Q14" s="25">
         <v>0.43109039999999998</v>
       </c>
-      <c r="S14" s="31">
+      <c r="S14" s="25">
         <v>0.76154540000000004</v>
       </c>
-      <c r="T14" s="31">
+      <c r="T14" s="25">
         <v>0.73634109999999997</v>
       </c>
-      <c r="U14" s="31">
+      <c r="U14" s="25">
         <v>0.42774570000000001</v>
       </c>
-      <c r="AA14" s="35">
+      <c r="AA14" s="29">
         <f t="shared" si="1"/>
         <v>1.0044547573920082</v>
       </c>
-      <c r="AB14" s="36">
+      <c r="AB14" s="30">
         <f t="shared" si="0"/>
         <v>1.0046220426918993</v>
       </c>
-      <c r="AC14" s="37">
+      <c r="AC14" s="31">
         <f t="shared" si="0"/>
         <v>1.0078193655716468</v>
       </c>
-      <c r="AE14" s="38">
+      <c r="AE14" s="32">
         <f t="shared" si="2"/>
         <v>1.0086764735022862</v>
       </c>
-      <c r="AF14" s="38">
+      <c r="AF14" s="32">
         <f t="shared" si="3"/>
         <v>1.0048805539160894</v>
       </c>
-      <c r="AG14" s="38">
+      <c r="AG14" s="32">
         <f t="shared" si="4"/>
         <v>1.0053599727245706</v>
       </c>
-      <c r="AI14" s="40">
+      <c r="AI14" s="34">
         <f t="shared" si="5"/>
         <v>3.7661587198913019E-3</v>
       </c>
-      <c r="AJ14" s="40">
+      <c r="AJ14" s="34">
         <f t="shared" si="6"/>
         <v>7.7788054392550566E-3</v>
       </c>
-      <c r="AK14" s="40">
+      <c r="AK14" s="34">
         <f t="shared" si="7"/>
         <v>2.1125581066495356E-3</v>
       </c>
-      <c r="AL14" s="58">
+      <c r="AL14" s="67">
+        <v>0.17219999999999999</v>
+      </c>
+      <c r="AM14" s="68">
+        <v>7.9710000000000003E-2</v>
+      </c>
+      <c r="AN14" s="52">
         <f t="shared" si="8"/>
         <v>201207</v>
       </c>
-      <c r="AM14" s="52" t="str">
+      <c r="AO14" s="46" t="str">
         <f t="shared" si="9"/>
         <v>ATM_EQ_SW_2</v>
       </c>
-      <c r="AN14" s="64">
-        <v>13.754238570479799</v>
-      </c>
-      <c r="AO14" s="64">
-        <v>-3.6574638553349401</v>
-      </c>
-      <c r="AP14" s="64">
-        <v>17.411702425814799</v>
-      </c>
-      <c r="AQ14" s="64">
-        <v>5.0483873575724498</v>
-      </c>
-      <c r="AR14" s="64">
-        <v>23.123577296198999</v>
-      </c>
-      <c r="AS14" s="64">
-        <v>45.298891917228502</v>
-      </c>
-      <c r="AV14" s="63">
-        <f>AN14*scale_decompression!B$14+scale_decompression!B$15</f>
-        <v>14.030395632320655</v>
-      </c>
-      <c r="AW14" s="63">
-        <f>AO14*scale_decompression!C$14+scale_decompression!C$15</f>
-        <v>-3.8786092584859029</v>
-      </c>
-      <c r="AX14" s="63">
+      <c r="AP14" s="56">
+        <v>13.799823457244701</v>
+      </c>
+      <c r="AQ14" s="56">
+        <v>-3.7030489906895099</v>
+      </c>
+      <c r="AR14" s="56">
+        <v>17.502872447934202</v>
+      </c>
+      <c r="AS14" s="56">
+        <v>5.0483872332775999</v>
+      </c>
+      <c r="AT14" s="56">
+        <v>23.123579701937299</v>
+      </c>
+      <c r="AU14" s="56">
+        <v>45.298896680562898</v>
+      </c>
+      <c r="AW14" s="55">
+        <f>AP14*scale_decompression!B$14+scale_decompression!B$15</f>
+        <v>14.03042706205529</v>
+      </c>
+      <c r="AX14" s="55">
+        <f>AQ14*scale_decompression!C$14+scale_decompression!C$15</f>
+        <v>-3.8788903824658201</v>
+      </c>
+      <c r="AY14" s="55">
         <f t="shared" si="10"/>
-        <v>17.909004890806557</v>
-      </c>
-      <c r="AY14" s="63">
+        <v>17.909317444521111</v>
+      </c>
+      <c r="AZ14" s="55">
         <f t="shared" si="11"/>
-        <v>5.0758931869173765</v>
-      </c>
-      <c r="AZ14" s="63">
-        <f>AR14*scale_decompression!F$14+scale_decompression!F$15</f>
-        <v>22.192735176861156</v>
-      </c>
-      <c r="BA14" s="63">
-        <f>AS14*scale_decompression!G$14+scale_decompression!G$15</f>
-        <v>43.456236611664558</v>
+        <v>5.0757683397947346</v>
+      </c>
+      <c r="BA14" s="55">
+        <f>AT14*scale_decompression!F$14+scale_decompression!F$15</f>
+        <v>22.192736031452597</v>
+      </c>
+      <c r="BB14" s="55">
+        <f>AU14*scale_decompression!G$14+scale_decompression!G$15</f>
+        <v>43.456238298996048</v>
       </c>
     </row>
-    <row r="15" spans="1:55">
+    <row r="15" spans="1:56">
       <c r="A15">
         <v>201207</v>
       </c>
       <c r="B15" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="31">
+      <c r="C15" s="25">
         <v>23</v>
       </c>
-      <c r="D15" s="31" t="s">
+      <c r="D15" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E15" s="25">
+        <v>0</v>
+      </c>
+      <c r="F15" s="25">
+        <v>5.383</v>
+      </c>
+      <c r="G15" s="25">
+        <v>45.667000000000002</v>
+      </c>
+      <c r="H15" s="25">
+        <v>2.9279999999999999</v>
+      </c>
+      <c r="I15" s="25">
+        <v>4.6020000000000003</v>
+      </c>
+      <c r="J15" s="25">
+        <v>4.7830000000000004</v>
+      </c>
+      <c r="K15" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="L15" s="25">
+        <v>1551.9</v>
+      </c>
+      <c r="M15" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="E15" s="31">
-        <v>0</v>
-      </c>
-      <c r="F15" s="31">
-        <v>5.383</v>
-      </c>
-      <c r="G15" s="31">
-        <v>45.667000000000002</v>
-      </c>
-      <c r="H15" s="31">
-        <v>2.9279999999999999</v>
-      </c>
-      <c r="I15" s="31">
-        <v>4.6020000000000003</v>
-      </c>
-      <c r="J15" s="31">
-        <v>4.7830000000000004</v>
-      </c>
-      <c r="K15" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="L15" s="31">
-        <v>1551.9</v>
-      </c>
-      <c r="M15" s="31" t="s">
+      <c r="N15" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="N15" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="O15" s="31">
+      <c r="O15" s="25">
         <v>0.76559560000000004</v>
       </c>
-      <c r="P15" s="31">
+      <c r="P15" s="25">
         <v>0.74048069999999999</v>
       </c>
-      <c r="Q15" s="31">
+      <c r="Q15" s="25">
         <v>0.43215559999999997</v>
       </c>
-      <c r="S15" s="31">
+      <c r="S15" s="25">
         <v>0.76163060000000005</v>
       </c>
-      <c r="T15" s="31">
+      <c r="T15" s="25">
         <v>0.73627100000000001</v>
       </c>
-      <c r="U15" s="31">
+      <c r="U15" s="25">
         <v>0.42802899999999999</v>
       </c>
-      <c r="AA15" s="35">
+      <c r="AA15" s="29">
         <f t="shared" si="1"/>
         <v>1.0052059357909202</v>
       </c>
-      <c r="AB15" s="36">
+      <c r="AB15" s="30">
         <f t="shared" si="0"/>
         <v>1.0057175958308828</v>
       </c>
-      <c r="AC15" s="37">
+      <c r="AC15" s="31">
         <f t="shared" si="0"/>
         <v>1.009640935544087</v>
       </c>
-      <c r="AE15" s="38">
+      <c r="AE15" s="32">
         <f t="shared" si="2"/>
         <v>1.0105121315250749</v>
       </c>
-      <c r="AF15" s="38">
+      <c r="AF15" s="32">
         <f t="shared" si="3"/>
         <v>1.0056387310168626</v>
       </c>
-      <c r="AG15" s="38">
+      <c r="AG15" s="32">
         <f t="shared" si="4"/>
         <v>1.0064676550191509</v>
       </c>
-      <c r="AI15" s="40">
+      <c r="AI15" s="34">
         <f t="shared" si="5"/>
         <v>3.7730126315774341E-3</v>
       </c>
-      <c r="AJ15" s="40">
+      <c r="AJ15" s="34">
         <f t="shared" si="6"/>
         <v>7.7846745071083745E-3</v>
       </c>
-      <c r="AK15" s="40">
+      <c r="AK15" s="34">
         <f t="shared" si="7"/>
         <v>2.1148856741621614E-3</v>
       </c>
-      <c r="AL15" s="58">
+      <c r="AL15" s="67">
+        <v>0.17219999999999999</v>
+      </c>
+      <c r="AM15" s="68">
+        <v>7.9710000000000003E-2</v>
+      </c>
+      <c r="AN15" s="52">
         <f t="shared" si="8"/>
         <v>201207</v>
       </c>
-      <c r="AM15" t="str">
+      <c r="AO15" t="str">
         <f t="shared" si="9"/>
         <v>ATM_EQ_SW_3</v>
       </c>
-      <c r="AN15" s="64">
-        <v>16.001773374926898</v>
-      </c>
-      <c r="AO15" s="64">
-        <v>-4.3685511398915402</v>
-      </c>
-      <c r="AP15" s="64">
-        <v>20.3703245148184</v>
-      </c>
-      <c r="AQ15" s="64">
-        <v>5.8166111175176898</v>
-      </c>
-      <c r="AR15" s="64">
-        <v>23.703515560060598</v>
-      </c>
-      <c r="AS15" s="64">
-        <v>46.447468335766501</v>
-      </c>
-      <c r="AV15" s="63">
-        <f>AN15*scale_decompression!B$14+scale_decompression!B$15</f>
-        <v>16.303878221144174</v>
-      </c>
-      <c r="AW15" s="63">
-        <f>AO15*scale_decompression!C$14+scale_decompression!C$15</f>
-        <v>-4.5445375921516273</v>
-      </c>
-      <c r="AX15" s="63">
+      <c r="AP15" s="56">
+        <v>16.047411333567101</v>
+      </c>
+      <c r="AQ15" s="56">
+        <v>-4.4141894402022199</v>
+      </c>
+      <c r="AR15" s="56">
+        <v>20.461600773769302</v>
+      </c>
+      <c r="AS15" s="56">
+        <v>5.8166109466824496</v>
+      </c>
+      <c r="AT15" s="56">
+        <v>23.703518866592301</v>
+      </c>
+      <c r="AU15" s="56">
+        <v>46.447474886142501</v>
+      </c>
+      <c r="AW15" s="55">
+        <f>AP15*scale_decompression!B$14+scale_decompression!B$15</f>
+        <v>16.303880168285868</v>
+      </c>
+      <c r="AX15" s="55">
+        <f>AQ15*scale_decompression!C$14+scale_decompression!C$15</f>
+        <v>-4.544863327437807</v>
+      </c>
+      <c r="AY15" s="55">
         <f t="shared" si="10"/>
-        <v>20.848415813295802</v>
-      </c>
-      <c r="AY15" s="63">
+        <v>20.848743495723674</v>
+      </c>
+      <c r="AZ15" s="55">
         <f t="shared" si="11"/>
-        <v>5.8796703144962734</v>
-      </c>
-      <c r="AZ15" s="63">
-        <f>AR15*scale_decompression!F$14+scale_decompression!F$15</f>
-        <v>22.752376317797374</v>
-      </c>
-      <c r="BA15" s="63">
-        <f>AS15*scale_decompression!G$14+scale_decompression!G$15</f>
-        <v>44.563693617477092</v>
+        <v>5.8795084204240311</v>
+      </c>
+      <c r="BA15" s="55">
+        <f>AT15*scale_decompression!F$14+scale_decompression!F$15</f>
+        <v>22.75237813802541</v>
+      </c>
+      <c r="BB15" s="55">
+        <f>AU15*scale_decompression!G$14+scale_decompression!G$15</f>
+        <v>44.563697215507979</v>
       </c>
     </row>
-    <row r="16" spans="1:55">
+    <row r="16" spans="1:56">
       <c r="A16">
         <v>201207</v>
       </c>
       <c r="B16" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="31">
+      <c r="C16" s="25">
         <v>24</v>
       </c>
-      <c r="D16" s="31" t="s">
+      <c r="D16" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="E16" s="31">
+      <c r="E16" s="25">
         <v>0</v>
       </c>
-      <c r="F16" s="31">
+      <c r="F16" s="25">
         <v>-4.0019999999999998</v>
       </c>
-      <c r="G16" s="31">
+      <c r="G16" s="25">
         <v>33.719000000000001</v>
       </c>
-      <c r="H16" s="31">
+      <c r="H16" s="25">
         <v>-3.0019999999999998</v>
       </c>
-      <c r="I16" s="31">
+      <c r="I16" s="25">
         <v>8.2829999999999995</v>
       </c>
-      <c r="J16" s="31">
+      <c r="J16" s="25">
         <v>8.6029999999999998</v>
       </c>
-      <c r="K16" s="31" t="s">
+      <c r="K16" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="L16" s="31">
+      <c r="L16" s="25">
         <v>1551</v>
       </c>
-      <c r="M16" s="31" t="s">
+      <c r="M16" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="N16" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="N16" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="O16" s="31">
+      <c r="O16" s="25">
         <v>0.75863199999999997</v>
       </c>
-      <c r="P16" s="31">
+      <c r="P16" s="25">
         <v>0.73199060000000005</v>
       </c>
-      <c r="Q16" s="31">
+      <c r="Q16" s="25">
         <v>0.42838850000000001</v>
       </c>
-      <c r="S16" s="31">
+      <c r="S16" s="25">
         <v>0.76167569999999996</v>
       </c>
-      <c r="T16" s="31">
+      <c r="T16" s="25">
         <v>0.73628070000000001</v>
       </c>
-      <c r="U16" s="31">
+      <c r="U16" s="25">
         <v>0.42812329999999998</v>
       </c>
-      <c r="AA16" s="35">
+      <c r="AA16" s="29">
         <f t="shared" si="1"/>
         <v>0.99600394236024603</v>
       </c>
-      <c r="AB16" s="36">
+      <c r="AB16" s="30">
         <f t="shared" si="0"/>
         <v>0.99417328201051591</v>
       </c>
-      <c r="AC16" s="37">
+      <c r="AC16" s="31">
         <f t="shared" si="0"/>
         <v>1.0006194477151793</v>
       </c>
-      <c r="AE16" s="38">
+      <c r="AE16" s="32">
         <f t="shared" si="2"/>
         <v>1.0012823781807745</v>
       </c>
-      <c r="AF16" s="38">
+      <c r="AF16" s="32">
         <f t="shared" si="3"/>
         <v>0.99633327484903467</v>
       </c>
-      <c r="AG16" s="38">
+      <c r="AG16" s="32">
         <f t="shared" si="4"/>
         <v>0.99474403428411884</v>
       </c>
-      <c r="AI16" s="40">
+      <c r="AI16" s="34">
         <f t="shared" si="5"/>
         <v>3.7385509216503769E-3</v>
       </c>
-      <c r="AJ16" s="40">
+      <c r="AJ16" s="34">
         <f t="shared" si="6"/>
         <v>7.7126407387455983E-3</v>
       </c>
-      <c r="AK16" s="40">
+      <c r="AK16" s="34">
         <f t="shared" si="7"/>
         <v>2.0902508859320735E-3</v>
       </c>
-      <c r="AL16" s="58">
+      <c r="AL16" s="67">
+        <v>0.17219999999999999</v>
+      </c>
+      <c r="AM16" s="68">
+        <v>7.9710000000000003E-2</v>
+      </c>
+      <c r="AN16" s="52">
         <f t="shared" si="8"/>
         <v>201207</v>
       </c>
-      <c r="AM16" t="str">
+      <c r="AO16" t="str">
         <f t="shared" si="9"/>
         <v>S2_ref_2</v>
       </c>
-      <c r="AN16" s="64">
-        <v>6.34330852432696</v>
-      </c>
-      <c r="AO16" s="64">
-        <v>-13.6683362136055</v>
-      </c>
-      <c r="AP16" s="64">
-        <v>20.0116447379324</v>
-      </c>
-      <c r="AQ16" s="64">
-        <v>-3.66251384463928</v>
-      </c>
-      <c r="AR16" s="64">
-        <v>17.560418650252199</v>
-      </c>
-      <c r="AS16" s="64">
-        <v>34.311993678702798</v>
-      </c>
-      <c r="AV16" s="63">
-        <f>AN16*scale_decompression!B$14+scale_decompression!B$15</f>
-        <v>6.5339064150769719</v>
-      </c>
-      <c r="AW16" s="63">
-        <f>AO16*scale_decompression!C$14+scale_decompression!C$15</f>
-        <v>-13.253722121374885</v>
-      </c>
-      <c r="AX16" s="63">
+      <c r="AP16" s="56">
+        <v>6.3885460550383497</v>
+      </c>
+      <c r="AQ16" s="56">
+        <v>-13.7135740655959</v>
+      </c>
+      <c r="AR16" s="56">
+        <v>20.102120120634201</v>
+      </c>
+      <c r="AS16" s="56">
+        <v>-3.6625140052787799</v>
+      </c>
+      <c r="AT16" s="56">
+        <v>17.560421759443798</v>
+      </c>
+      <c r="AU16" s="56">
+        <v>34.311999803463699</v>
+      </c>
+      <c r="AW16" s="55">
+        <f>AP16*scale_decompression!B$14+scale_decompression!B$15</f>
+        <v>6.5338607170045782</v>
+      </c>
+      <c r="AX16" s="55">
+        <f>AQ16*scale_decompression!C$14+scale_decompression!C$15</f>
+        <v>-13.25360513736344</v>
+      </c>
+      <c r="AY16" s="55">
         <f t="shared" si="10"/>
-        <v>19.787628536451855</v>
-      </c>
-      <c r="AY16" s="63">
+        <v>19.787465854368019</v>
+      </c>
+      <c r="AZ16" s="55">
         <f t="shared" si="11"/>
-        <v>-3.3599078531489566</v>
-      </c>
-      <c r="AZ16" s="63">
-        <f>AR16*scale_decompression!F$14+scale_decompression!F$15</f>
-        <v>16.824280212196406</v>
-      </c>
-      <c r="BA16" s="63">
-        <f>AS16*scale_decompression!G$14+scale_decompression!G$15</f>
-        <v>32.862672935777404</v>
+        <v>-3.3598722101794309</v>
+      </c>
+      <c r="BA16" s="55">
+        <f>AT16*scale_decompression!F$14+scale_decompression!F$15</f>
+        <v>16.824280821178181</v>
+      </c>
+      <c r="BB16" s="55">
+        <f>AU16*scale_decompression!G$14+scale_decompression!G$15</f>
+        <v>32.862674140950254</v>
       </c>
     </row>
-    <row r="17" spans="1:53">
+    <row r="17" spans="1:54">
       <c r="A17">
         <v>201207</v>
       </c>
-      <c r="C17" s="31">
+      <c r="C17" s="25">
         <v>25</v>
       </c>
-      <c r="D17" s="31" t="s">
+      <c r="D17" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="E17" s="31">
+      <c r="E17" s="25">
         <v>0</v>
       </c>
-      <c r="F17" s="31">
+      <c r="F17" s="25">
         <v>-7.13</v>
       </c>
-      <c r="G17" s="31">
+      <c r="G17" s="25">
         <v>44.149000000000001</v>
       </c>
-      <c r="H17" s="31">
+      <c r="H17" s="25">
         <v>2.1760000000000002</v>
       </c>
-      <c r="I17" s="31">
+      <c r="I17" s="25">
         <v>13.6</v>
       </c>
-      <c r="J17" s="31">
+      <c r="J17" s="25">
         <v>14.154</v>
       </c>
-      <c r="K17" s="31" t="s">
+      <c r="K17" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="L17" s="31">
+      <c r="L17" s="25">
         <v>1551.2</v>
       </c>
-      <c r="M17" s="31" t="s">
+      <c r="M17" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="N17" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="N17" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="O17" s="31">
+      <c r="O17" s="25">
         <v>0.75660369999999999</v>
       </c>
-      <c r="P17" s="31">
+      <c r="P17" s="25">
         <v>0.73928139999999998</v>
       </c>
-      <c r="Q17" s="31">
+      <c r="Q17" s="25">
         <v>0.43062440000000002</v>
       </c>
-      <c r="S17" s="31">
+      <c r="S17" s="25">
         <v>0.76169560000000003</v>
       </c>
-      <c r="T17" s="31">
+      <c r="T17" s="25">
         <v>0.73627120000000001</v>
       </c>
-      <c r="U17" s="31">
+      <c r="U17" s="25">
         <v>0.42825439999999998</v>
       </c>
-      <c r="AA17" s="35">
+      <c r="AA17" s="29">
         <f t="shared" si="1"/>
         <v>0.99331504606302035</v>
       </c>
-      <c r="AB17" s="36">
+      <c r="AB17" s="30">
         <f t="shared" si="0"/>
         <v>1.0040884391512257</v>
       </c>
-      <c r="AC17" s="37">
+      <c r="AC17" s="31">
         <f t="shared" si="0"/>
         <v>1.0055340937536195</v>
       </c>
-      <c r="AE17" s="38">
+      <c r="AE17" s="32">
         <f t="shared" si="2"/>
         <v>1.0058961962525363</v>
       </c>
-      <c r="AF17" s="38">
+      <c r="AF17" s="32">
         <f t="shared" si="3"/>
         <v>0.99349493237592013</v>
       </c>
-      <c r="AG17" s="38">
+      <c r="AG17" s="32">
         <f t="shared" si="4"/>
         <v>1.0044001925480899</v>
       </c>
-      <c r="AI17" s="40">
+      <c r="AI17" s="34">
         <f t="shared" si="5"/>
         <v>3.7557778240511282E-3</v>
       </c>
-      <c r="AJ17" s="40">
+      <c r="AJ17" s="34">
         <f>AF17*$X$3</f>
         <v>7.6906690588456452E-3</v>
       </c>
-      <c r="AK17" s="40">
+      <c r="AK17" s="34">
         <f t="shared" si="7"/>
         <v>2.1105413251509336E-3</v>
       </c>
-      <c r="AL17" s="58">
+      <c r="AL17" s="67">
+        <v>0.17219999999999999</v>
+      </c>
+      <c r="AM17" s="68">
+        <v>7.9710000000000003E-2</v>
+      </c>
+      <c r="AN17" s="52">
         <f t="shared" si="8"/>
         <v>201207</v>
       </c>
-      <c r="AM17" s="52" t="str">
+      <c r="AO17" s="46" t="str">
         <f t="shared" si="9"/>
         <v>DI</v>
       </c>
-      <c r="AN17" s="64">
-        <v>12.5964587639961</v>
-      </c>
-      <c r="AO17" s="64">
-        <v>-26.429540998654598</v>
-      </c>
-      <c r="AP17" s="64">
-        <v>39.025999762650798</v>
-      </c>
-      <c r="AQ17" s="64">
-        <v>-6.9165411173292499</v>
-      </c>
-      <c r="AR17" s="64">
-        <v>22.706990474774301</v>
-      </c>
-      <c r="AS17" s="64">
-        <v>44.474212261421599</v>
-      </c>
-      <c r="AV17" s="63">
-        <f>AN17*scale_decompression!B$14+scale_decompression!B$15</f>
-        <v>12.859249260516336</v>
-      </c>
-      <c r="AW17" s="63">
-        <f>AO17*scale_decompression!C$14+scale_decompression!C$15</f>
-        <v>-25.204502317611691</v>
-      </c>
-      <c r="AX17" s="63">
+      <c r="AP17" s="56">
+        <v>12.641866191825001</v>
+      </c>
+      <c r="AQ17" s="56">
+        <v>-26.4749490551166</v>
+      </c>
+      <c r="AR17" s="56">
+        <v>39.116815246941599</v>
+      </c>
+      <c r="AS17" s="56">
+        <v>-6.9165414316457703</v>
+      </c>
+      <c r="AT17" s="56">
+        <v>22.7069965584001</v>
+      </c>
+      <c r="AU17" s="56">
+        <v>44.474224302331002</v>
+      </c>
+      <c r="AW17" s="55">
+        <f>AP17*scale_decompression!B$14+scale_decompression!B$15</f>
+        <v>12.859144030284273</v>
+      </c>
+      <c r="AX17" s="55">
+        <f>AQ17*scale_decompression!C$14+scale_decompression!C$15</f>
+        <v>-25.204451822412068</v>
+      </c>
+      <c r="AY17" s="55">
         <f t="shared" si="10"/>
-        <v>38.063751578128027</v>
-      </c>
-      <c r="AY17" s="63">
+        <v>38.063595852696338</v>
+      </c>
+      <c r="AZ17" s="55">
         <f t="shared" si="11"/>
-        <v>-6.1726265285476778</v>
-      </c>
-      <c r="AZ17" s="63">
-        <f>AR17*scale_decompression!F$14+scale_decompression!F$15</f>
-        <v>21.790728379639805</v>
-      </c>
-      <c r="BA17" s="63">
-        <f>AS17*scale_decompression!G$14+scale_decompression!G$15</f>
-        <v>42.66108075818034</v>
+        <v>-6.1726538960638972</v>
+      </c>
+      <c r="BA17" s="55">
+        <f>AT17*scale_decompression!F$14+scale_decompression!F$15</f>
+        <v>21.790732714172631</v>
+      </c>
+      <c r="BB17" s="55">
+        <f>AU17*scale_decompression!G$14+scale_decompression!G$15</f>
+        <v>42.661089327826822</v>
       </c>
     </row>
-    <row r="18" spans="1:53">
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="31"/>
-      <c r="P18" s="31"/>
-      <c r="Q18" s="31"/>
-      <c r="S18" s="31"/>
-      <c r="T18" s="31"/>
-      <c r="U18" s="31"/>
-      <c r="AA18" s="35" t="e">
+    <row r="18" spans="1:54">
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="25"/>
+      <c r="S18" s="25"/>
+      <c r="T18" s="25"/>
+      <c r="U18" s="25"/>
+      <c r="AA18" s="29" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB18" s="36" t="e">
+      <c r="AB18" s="30" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC18" s="37" t="e">
+      <c r="AC18" s="31" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE18" s="38" t="e">
+      <c r="AE18" s="32" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF18" s="38" t="e">
+      <c r="AF18" s="32" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG18" s="38" t="e">
+      <c r="AG18" s="32" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI18" s="40" t="e">
+      <c r="AI18" s="34" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ18" s="40" t="e">
+      <c r="AJ18" s="34" t="e">
         <f t="shared" ref="AJ18:AJ24" si="12">AF18*$X$3</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK18" s="40" t="e">
+      <c r="AK18" s="34" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AL18" s="61"/>
-      <c r="AM18" s="59"/>
-      <c r="AN18" s="59"/>
-      <c r="AO18" s="59"/>
-      <c r="AP18" s="59"/>
-      <c r="AQ18" s="59"/>
-      <c r="AR18" s="59"/>
-      <c r="AS18" s="59"/>
-      <c r="AT18" s="56"/>
+      <c r="AL18" s="67"/>
+      <c r="AM18" s="65"/>
+      <c r="AN18" s="54"/>
+      <c r="AO18" s="53"/>
+      <c r="AP18" s="53"/>
+      <c r="AQ18" s="53"/>
+      <c r="AR18" s="53"/>
+      <c r="AS18" s="53"/>
+      <c r="AT18" s="53"/>
+      <c r="AU18" s="53"/>
     </row>
-    <row r="19" spans="1:53">
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31"/>
-      <c r="P19" s="31"/>
-      <c r="Q19" s="31"/>
-      <c r="S19" s="31"/>
-      <c r="T19" s="31"/>
-      <c r="U19" s="31"/>
-      <c r="AA19" s="35" t="e">
+    <row r="19" spans="1:54">
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="25"/>
+      <c r="Q19" s="25"/>
+      <c r="S19" s="25"/>
+      <c r="T19" s="25"/>
+      <c r="U19" s="25"/>
+      <c r="AA19" s="29" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB19" s="36" t="e">
+      <c r="AB19" s="30" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC19" s="37" t="e">
+      <c r="AC19" s="31" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE19" s="38" t="e">
+      <c r="AE19" s="32" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF19" s="38" t="e">
+      <c r="AF19" s="32" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG19" s="38" t="e">
+      <c r="AG19" s="32" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI19" s="40" t="e">
+      <c r="AI19" s="34" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ19" s="40" t="e">
+      <c r="AJ19" s="34" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK19" s="40" t="e">
+      <c r="AK19" s="34" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AL19" s="61"/>
-      <c r="AM19" s="59"/>
-      <c r="AN19" s="59"/>
-      <c r="AO19" s="59"/>
-      <c r="AP19" s="59"/>
-      <c r="AQ19" s="59"/>
-      <c r="AR19" s="59"/>
-      <c r="AS19" s="59"/>
-      <c r="AT19" s="56"/>
+      <c r="AL19" s="67"/>
+      <c r="AM19" s="65"/>
+      <c r="AN19" s="54"/>
+      <c r="AO19" s="53"/>
+      <c r="AP19" s="53"/>
+      <c r="AQ19" s="53"/>
+      <c r="AR19" s="53"/>
+      <c r="AS19" s="53"/>
+      <c r="AT19" s="53"/>
+      <c r="AU19" s="53"/>
     </row>
-    <row r="20" spans="1:53">
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="31"/>
-      <c r="P20" s="31"/>
-      <c r="Q20" s="31"/>
-      <c r="S20" s="31"/>
-      <c r="T20" s="31"/>
-      <c r="U20" s="31"/>
-      <c r="AA20" s="35" t="e">
+    <row r="20" spans="1:54">
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="25"/>
+      <c r="Q20" s="25"/>
+      <c r="S20" s="25"/>
+      <c r="T20" s="25"/>
+      <c r="U20" s="25"/>
+      <c r="AA20" s="29" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB20" s="36" t="e">
+      <c r="AB20" s="30" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC20" s="37" t="e">
+      <c r="AC20" s="31" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE20" s="38" t="e">
+      <c r="AE20" s="32" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF20" s="38" t="e">
+      <c r="AF20" s="32" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG20" s="38" t="e">
+      <c r="AG20" s="32" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI20" s="40" t="e">
+      <c r="AI20" s="34" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ20" s="40" t="e">
+      <c r="AJ20" s="34" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK20" s="40" t="e">
+      <c r="AK20" s="34" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AL20" s="61"/>
-      <c r="AM20" s="59"/>
-      <c r="AN20" s="59"/>
-      <c r="AO20" s="59"/>
-      <c r="AP20" s="59"/>
-      <c r="AQ20" s="59"/>
-      <c r="AR20" s="59"/>
-      <c r="AS20" s="59"/>
-      <c r="AT20" s="56"/>
+      <c r="AL20" s="67"/>
+      <c r="AM20" s="65"/>
+      <c r="AN20" s="54"/>
+      <c r="AO20" s="53"/>
+      <c r="AP20" s="53"/>
+      <c r="AQ20" s="53"/>
+      <c r="AR20" s="53"/>
+      <c r="AS20" s="53"/>
+      <c r="AT20" s="53"/>
+      <c r="AU20" s="53"/>
     </row>
-    <row r="21" spans="1:53">
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="31"/>
-      <c r="O21" s="31"/>
-      <c r="P21" s="31"/>
-      <c r="Q21" s="31"/>
-      <c r="S21" s="31"/>
-      <c r="T21" s="31"/>
-      <c r="U21" s="31"/>
-      <c r="AA21" s="35" t="e">
+    <row r="21" spans="1:54">
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="25"/>
+      <c r="O21" s="25"/>
+      <c r="P21" s="25"/>
+      <c r="Q21" s="25"/>
+      <c r="S21" s="25"/>
+      <c r="T21" s="25"/>
+      <c r="U21" s="25"/>
+      <c r="AA21" s="29" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB21" s="36" t="e">
+      <c r="AB21" s="30" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC21" s="37" t="e">
+      <c r="AC21" s="31" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE21" s="38" t="e">
+      <c r="AE21" s="32" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF21" s="38" t="e">
+      <c r="AF21" s="32" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG21" s="38" t="e">
+      <c r="AG21" s="32" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI21" s="40" t="e">
+      <c r="AI21" s="34" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ21" s="40" t="e">
+      <c r="AJ21" s="34" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK21" s="40" t="e">
+      <c r="AK21" s="34" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AL21" s="61"/>
-      <c r="AM21" s="59"/>
-      <c r="AN21" s="59"/>
-      <c r="AO21" s="59"/>
-      <c r="AP21" s="59"/>
-      <c r="AQ21" s="59"/>
-      <c r="AR21" s="59"/>
-      <c r="AS21" s="59"/>
-      <c r="AT21" s="56"/>
+      <c r="AL21" s="67"/>
+      <c r="AM21" s="65"/>
+      <c r="AN21" s="54"/>
+      <c r="AO21" s="53"/>
+      <c r="AP21" s="53"/>
+      <c r="AQ21" s="53"/>
+      <c r="AR21" s="53"/>
+      <c r="AS21" s="53"/>
+      <c r="AT21" s="53"/>
+      <c r="AU21" s="53"/>
     </row>
-    <row r="22" spans="1:53">
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="31"/>
-      <c r="N22" s="31"/>
-      <c r="O22" s="31"/>
-      <c r="P22" s="31"/>
-      <c r="Q22" s="31"/>
-      <c r="S22" s="31"/>
-      <c r="T22" s="31"/>
-      <c r="U22" s="31"/>
-      <c r="AA22" s="35" t="e">
+    <row r="22" spans="1:54">
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="25"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="25"/>
+      <c r="Q22" s="25"/>
+      <c r="S22" s="25"/>
+      <c r="T22" s="25"/>
+      <c r="U22" s="25"/>
+      <c r="AA22" s="29" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB22" s="36" t="e">
+      <c r="AB22" s="30" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC22" s="37" t="e">
+      <c r="AC22" s="31" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE22" s="38" t="e">
+      <c r="AE22" s="32" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF22" s="38" t="e">
+      <c r="AF22" s="32" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG22" s="38" t="e">
+      <c r="AG22" s="32" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI22" s="40" t="e">
+      <c r="AI22" s="34" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ22" s="40" t="e">
+      <c r="AJ22" s="34" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK22" s="40" t="e">
+      <c r="AK22" s="34" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AL22" s="61"/>
-      <c r="AM22" s="59"/>
-      <c r="AN22" s="59"/>
-      <c r="AO22" s="59"/>
-      <c r="AP22" s="59"/>
-      <c r="AQ22" s="59"/>
-      <c r="AR22" s="59"/>
-      <c r="AS22" s="59"/>
-      <c r="AT22" s="56"/>
+      <c r="AL22" s="67"/>
+      <c r="AM22" s="65"/>
+      <c r="AN22" s="54"/>
+      <c r="AO22" s="53"/>
+      <c r="AP22" s="53"/>
+      <c r="AQ22" s="53"/>
+      <c r="AR22" s="53"/>
+      <c r="AS22" s="53"/>
+      <c r="AT22" s="53"/>
+      <c r="AU22" s="53"/>
     </row>
-    <row r="23" spans="1:53">
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="31"/>
-      <c r="M23" s="31"/>
-      <c r="N23" s="31"/>
-      <c r="O23" s="31"/>
-      <c r="P23" s="31"/>
-      <c r="Q23" s="31"/>
-      <c r="S23" s="31"/>
-      <c r="T23" s="31"/>
-      <c r="U23" s="31"/>
-      <c r="AA23" s="35" t="e">
+    <row r="23" spans="1:54">
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="25"/>
+      <c r="O23" s="25"/>
+      <c r="P23" s="25"/>
+      <c r="Q23" s="25"/>
+      <c r="S23" s="25"/>
+      <c r="T23" s="25"/>
+      <c r="U23" s="25"/>
+      <c r="AA23" s="29" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB23" s="36" t="e">
+      <c r="AB23" s="30" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC23" s="37" t="e">
+      <c r="AC23" s="31" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE23" s="38" t="e">
+      <c r="AE23" s="32" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF23" s="38" t="e">
+      <c r="AF23" s="32" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG23" s="38" t="e">
+      <c r="AG23" s="32" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI23" s="40" t="e">
+      <c r="AI23" s="34" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ23" s="40" t="e">
+      <c r="AJ23" s="34" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK23" s="40" t="e">
+      <c r="AK23" s="34" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AL23" s="61"/>
-      <c r="AM23" s="59"/>
-      <c r="AN23" s="59"/>
-      <c r="AO23" s="59"/>
-      <c r="AP23" s="59"/>
-      <c r="AQ23" s="59"/>
-      <c r="AR23" s="59"/>
-      <c r="AS23" s="59"/>
-      <c r="AT23" s="56"/>
+      <c r="AL23" s="67"/>
+      <c r="AM23" s="65"/>
+      <c r="AN23" s="54"/>
+      <c r="AO23" s="53"/>
+      <c r="AP23" s="53"/>
+      <c r="AQ23" s="53"/>
+      <c r="AR23" s="53"/>
+      <c r="AS23" s="53"/>
+      <c r="AT23" s="53"/>
+      <c r="AU23" s="53"/>
     </row>
-    <row r="24" spans="1:53">
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="31"/>
-      <c r="M24" s="31"/>
-      <c r="N24" s="31"/>
-      <c r="O24" s="31"/>
-      <c r="P24" s="31"/>
-      <c r="Q24" s="31"/>
-      <c r="S24" s="31"/>
-      <c r="T24" s="31"/>
-      <c r="U24" s="31"/>
-      <c r="AA24" s="35" t="e">
+    <row r="24" spans="1:54">
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="25"/>
+      <c r="O24" s="25"/>
+      <c r="P24" s="25"/>
+      <c r="Q24" s="25"/>
+      <c r="S24" s="25"/>
+      <c r="T24" s="25"/>
+      <c r="U24" s="25"/>
+      <c r="AA24" s="29" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB24" s="36" t="e">
+      <c r="AB24" s="30" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC24" s="37" t="e">
+      <c r="AC24" s="31" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE24" s="38" t="e">
+      <c r="AE24" s="32" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF24" s="38" t="e">
+      <c r="AF24" s="32" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG24" s="38" t="e">
+      <c r="AG24" s="32" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI24" s="40" t="e">
+      <c r="AI24" s="34" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ24" s="40" t="e">
+      <c r="AJ24" s="34" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK24" s="40" t="e">
+      <c r="AK24" s="34" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AL24" s="61"/>
-      <c r="AM24" s="59"/>
-      <c r="AN24" s="59"/>
-      <c r="AO24" s="59"/>
-      <c r="AP24" s="59"/>
-      <c r="AQ24" s="59"/>
-      <c r="AR24" s="59"/>
-      <c r="AS24" s="59"/>
-      <c r="AT24" s="56"/>
+      <c r="AL24" s="67"/>
+      <c r="AM24" s="65"/>
+      <c r="AN24" s="54"/>
+      <c r="AO24" s="53"/>
+      <c r="AP24" s="53"/>
+      <c r="AQ24" s="53"/>
+      <c r="AR24" s="53"/>
+      <c r="AS24" s="53"/>
+      <c r="AT24" s="53"/>
+      <c r="AU24" s="53"/>
     </row>
-    <row r="25" spans="1:53">
-      <c r="C25" s="53"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="53"/>
-      <c r="H25" s="53"/>
-      <c r="I25" s="53"/>
-      <c r="J25" s="53"/>
-      <c r="K25" s="53"/>
-      <c r="L25" s="53"/>
-      <c r="M25" s="53"/>
-      <c r="N25" s="54"/>
-      <c r="O25" s="53"/>
-      <c r="P25" s="53"/>
-      <c r="Q25" s="53"/>
-      <c r="S25" s="31"/>
-      <c r="T25" s="31"/>
-      <c r="U25" s="31"/>
-      <c r="AA25" s="35" t="e">
+    <row r="25" spans="1:54">
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="47"/>
+      <c r="N25" s="48"/>
+      <c r="O25" s="47"/>
+      <c r="P25" s="47"/>
+      <c r="Q25" s="47"/>
+      <c r="S25" s="25"/>
+      <c r="T25" s="25"/>
+      <c r="U25" s="25"/>
+      <c r="AA25" s="29" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB25" s="36" t="e">
+      <c r="AB25" s="30" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC25" s="37" t="e">
+      <c r="AC25" s="31" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE25" s="38" t="e">
+      <c r="AE25" s="32" t="e">
         <f t="shared" ref="AE25" si="13">$W$7*(20-I25)+AC25</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF25" s="38" t="e">
+      <c r="AF25" s="32" t="e">
         <f t="shared" ref="AF25" si="14">$X$7*(20-I25)+AA25</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG25" s="38" t="e">
+      <c r="AG25" s="32" t="e">
         <f t="shared" ref="AG25" si="15">$Y$7*(20-I25)+AB25</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI25" s="40" t="e">
+      <c r="AI25" s="34" t="e">
         <f t="shared" ref="AI25" si="16">AE25*$W$3</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ25" s="40" t="e">
+      <c r="AJ25" s="34" t="e">
         <f t="shared" ref="AJ25" si="17">AF25*$X$3</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK25" s="40" t="e">
+      <c r="AK25" s="34" t="e">
         <f t="shared" ref="AK25" si="18">AG25*$Y$3</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AL25" s="61"/>
-      <c r="AM25" s="59"/>
-      <c r="AN25" s="59"/>
-      <c r="AO25" s="59"/>
-      <c r="AP25" s="59"/>
-      <c r="AQ25" s="59"/>
-      <c r="AR25" s="59"/>
-      <c r="AS25" s="59"/>
-      <c r="AT25" s="56"/>
+      <c r="AL25" s="67"/>
+      <c r="AM25" s="65"/>
+      <c r="AN25" s="54"/>
+      <c r="AO25" s="53"/>
+      <c r="AP25" s="53"/>
+      <c r="AQ25" s="53"/>
+      <c r="AR25" s="53"/>
+      <c r="AS25" s="53"/>
+      <c r="AT25" s="53"/>
+      <c r="AU25" s="53"/>
     </row>
-    <row r="26" spans="1:53">
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="31"/>
-      <c r="L26" s="31"/>
-      <c r="M26" s="31"/>
-      <c r="N26" s="31"/>
-      <c r="O26" s="31"/>
-      <c r="P26" s="31"/>
-      <c r="Q26" s="31"/>
-      <c r="S26" s="31"/>
-      <c r="T26" s="31"/>
-      <c r="U26" s="31"/>
-      <c r="AA26" s="35" t="e">
+    <row r="26" spans="1:54">
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="25"/>
+      <c r="O26" s="25"/>
+      <c r="P26" s="25"/>
+      <c r="Q26" s="25"/>
+      <c r="S26" s="25"/>
+      <c r="T26" s="25"/>
+      <c r="U26" s="25"/>
+      <c r="AA26" s="29" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB26" s="36" t="e">
+      <c r="AB26" s="30" t="e">
         <f t="shared" ref="AB26:AB32" si="19">P26/T26</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC26" s="37" t="e">
+      <c r="AC26" s="31" t="e">
         <f t="shared" ref="AC26:AC32" si="20">Q26/U26</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE26" s="38" t="e">
+      <c r="AE26" s="32" t="e">
         <f t="shared" ref="AE26:AE32" si="21">$W$7*(20-I26)+AC26</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF26" s="38" t="e">
+      <c r="AF26" s="32" t="e">
         <f t="shared" ref="AF26:AF32" si="22">$X$7*(20-I26)+AA26</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG26" s="38" t="e">
+      <c r="AG26" s="32" t="e">
         <f t="shared" ref="AG26:AG32" si="23">$Y$7*(20-I26)+AB26</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI26" s="40" t="e">
+      <c r="AI26" s="34" t="e">
         <f t="shared" ref="AI26:AI32" si="24">AE26*$W$3</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ26" s="40" t="e">
+      <c r="AJ26" s="34" t="e">
         <f t="shared" ref="AJ26:AJ32" si="25">AF26*$X$3</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK26" s="40" t="e">
+      <c r="AK26" s="34" t="e">
         <f t="shared" ref="AK26:AK32" si="26">AG26*$Y$3</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AL26" s="61"/>
-      <c r="AM26" s="59"/>
-      <c r="AN26" s="59"/>
-      <c r="AO26" s="59"/>
-      <c r="AP26" s="59"/>
-      <c r="AQ26" s="59"/>
-      <c r="AR26" s="59"/>
-      <c r="AS26" s="59"/>
-      <c r="AT26" s="56"/>
+      <c r="AL26" s="67"/>
+      <c r="AM26" s="65"/>
+      <c r="AN26" s="54"/>
+      <c r="AO26" s="53"/>
+      <c r="AP26" s="53"/>
+      <c r="AQ26" s="53"/>
+      <c r="AR26" s="53"/>
+      <c r="AS26" s="53"/>
+      <c r="AT26" s="53"/>
+      <c r="AU26" s="53"/>
     </row>
-    <row r="27" spans="1:53">
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="31"/>
-      <c r="L27" s="31"/>
-      <c r="M27" s="31"/>
-      <c r="N27" s="31"/>
-      <c r="O27" s="31"/>
-      <c r="P27" s="31"/>
-      <c r="Q27" s="31"/>
-      <c r="S27" s="31"/>
-      <c r="T27" s="31"/>
-      <c r="U27" s="31"/>
-      <c r="AA27" s="35" t="e">
+    <row r="27" spans="1:54">
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="25"/>
+      <c r="O27" s="25"/>
+      <c r="P27" s="25"/>
+      <c r="Q27" s="25"/>
+      <c r="S27" s="25"/>
+      <c r="T27" s="25"/>
+      <c r="U27" s="25"/>
+      <c r="AA27" s="29" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB27" s="36" t="e">
+      <c r="AB27" s="30" t="e">
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC27" s="37" t="e">
+      <c r="AC27" s="31" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE27" s="38" t="e">
+      <c r="AE27" s="32" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF27" s="38" t="e">
+      <c r="AF27" s="32" t="e">
         <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG27" s="38" t="e">
+      <c r="AG27" s="32" t="e">
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI27" s="40" t="e">
+      <c r="AI27" s="34" t="e">
         <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ27" s="40" t="e">
+      <c r="AJ27" s="34" t="e">
         <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK27" s="40" t="e">
+      <c r="AK27" s="34" t="e">
         <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AL27" s="61"/>
-      <c r="AM27" s="59"/>
-      <c r="AN27" s="59"/>
-      <c r="AO27" s="59"/>
-      <c r="AP27" s="59"/>
-      <c r="AQ27" s="59"/>
-      <c r="AR27" s="59"/>
-      <c r="AS27" s="59"/>
-      <c r="AT27" s="56"/>
+      <c r="AL27" s="67"/>
+      <c r="AM27" s="65"/>
+      <c r="AN27" s="54"/>
+      <c r="AO27" s="53"/>
+      <c r="AP27" s="53"/>
+      <c r="AQ27" s="53"/>
+      <c r="AR27" s="53"/>
+      <c r="AS27" s="53"/>
+      <c r="AT27" s="53"/>
+      <c r="AU27" s="53"/>
     </row>
-    <row r="28" spans="1:53">
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
-      <c r="K28" s="31"/>
-      <c r="L28" s="31"/>
-      <c r="M28" s="31"/>
-      <c r="N28" s="31"/>
-      <c r="O28" s="31"/>
-      <c r="P28" s="31"/>
-      <c r="Q28" s="31"/>
-      <c r="S28" s="31"/>
-      <c r="T28" s="31"/>
-      <c r="U28" s="31"/>
-      <c r="AA28" s="35" t="e">
+    <row r="28" spans="1:54">
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="25"/>
+      <c r="O28" s="25"/>
+      <c r="P28" s="25"/>
+      <c r="Q28" s="25"/>
+      <c r="S28" s="25"/>
+      <c r="T28" s="25"/>
+      <c r="U28" s="25"/>
+      <c r="AA28" s="29" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB28" s="36" t="e">
+      <c r="AB28" s="30" t="e">
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC28" s="37" t="e">
+      <c r="AC28" s="31" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE28" s="38" t="e">
+      <c r="AE28" s="32" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF28" s="38" t="e">
+      <c r="AF28" s="32" t="e">
         <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG28" s="38" t="e">
+      <c r="AG28" s="32" t="e">
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI28" s="40" t="e">
+      <c r="AI28" s="34" t="e">
         <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ28" s="40" t="e">
+      <c r="AJ28" s="34" t="e">
         <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK28" s="40" t="e">
+      <c r="AK28" s="34" t="e">
         <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AL28" s="61"/>
-      <c r="AM28" s="59"/>
-      <c r="AN28" s="59"/>
-      <c r="AO28" s="59"/>
-      <c r="AP28" s="59"/>
-      <c r="AQ28" s="59"/>
-      <c r="AR28" s="59"/>
-      <c r="AS28" s="59"/>
-      <c r="AT28" s="56"/>
+      <c r="AL28" s="67"/>
+      <c r="AM28" s="65"/>
+      <c r="AN28" s="54"/>
+      <c r="AO28" s="53"/>
+      <c r="AP28" s="53"/>
+      <c r="AQ28" s="53"/>
+      <c r="AR28" s="53"/>
+      <c r="AS28" s="53"/>
+      <c r="AT28" s="53"/>
+      <c r="AU28" s="53"/>
     </row>
-    <row r="29" spans="1:53">
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="31"/>
-      <c r="K29" s="31"/>
-      <c r="L29" s="31"/>
-      <c r="M29" s="31"/>
-      <c r="N29" s="31"/>
-      <c r="O29" s="31"/>
-      <c r="P29" s="31"/>
-      <c r="Q29" s="31"/>
-      <c r="S29" s="31"/>
-      <c r="T29" s="31"/>
-      <c r="U29" s="31"/>
-      <c r="AA29" s="35" t="e">
+    <row r="29" spans="1:54">
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="25"/>
+      <c r="O29" s="25"/>
+      <c r="P29" s="25"/>
+      <c r="Q29" s="25"/>
+      <c r="S29" s="25"/>
+      <c r="T29" s="25"/>
+      <c r="U29" s="25"/>
+      <c r="AA29" s="29" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB29" s="36" t="e">
+      <c r="AB29" s="30" t="e">
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC29" s="37" t="e">
+      <c r="AC29" s="31" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE29" s="38" t="e">
+      <c r="AE29" s="32" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF29" s="38" t="e">
+      <c r="AF29" s="32" t="e">
         <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG29" s="38" t="e">
+      <c r="AG29" s="32" t="e">
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI29" s="40" t="e">
+      <c r="AI29" s="34" t="e">
         <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ29" s="40" t="e">
+      <c r="AJ29" s="34" t="e">
         <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK29" s="40" t="e">
+      <c r="AK29" s="34" t="e">
         <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AL29" s="61"/>
-      <c r="AM29" s="59"/>
-      <c r="AN29" s="59"/>
-      <c r="AO29" s="59"/>
-      <c r="AP29" s="59"/>
-      <c r="AQ29" s="59"/>
-      <c r="AR29" s="59"/>
-      <c r="AS29" s="59"/>
-      <c r="AT29" s="56"/>
+      <c r="AL29" s="67"/>
+      <c r="AM29" s="65"/>
+      <c r="AN29" s="54"/>
+      <c r="AO29" s="53"/>
+      <c r="AP29" s="53"/>
+      <c r="AQ29" s="53"/>
+      <c r="AR29" s="53"/>
+      <c r="AS29" s="53"/>
+      <c r="AT29" s="53"/>
+      <c r="AU29" s="53"/>
     </row>
-    <row r="30" spans="1:53">
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="31"/>
-      <c r="K30" s="31"/>
-      <c r="L30" s="31"/>
-      <c r="M30" s="31"/>
-      <c r="N30" s="31"/>
-      <c r="O30" s="31"/>
-      <c r="P30" s="31"/>
-      <c r="Q30" s="31"/>
-      <c r="S30" s="31"/>
-      <c r="T30" s="31"/>
-      <c r="U30" s="31"/>
-      <c r="AA30" s="35" t="e">
+    <row r="30" spans="1:54">
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="25"/>
+      <c r="O30" s="25"/>
+      <c r="P30" s="25"/>
+      <c r="Q30" s="25"/>
+      <c r="S30" s="25"/>
+      <c r="T30" s="25"/>
+      <c r="U30" s="25"/>
+      <c r="AA30" s="29" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB30" s="36" t="e">
+      <c r="AB30" s="30" t="e">
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC30" s="37" t="e">
+      <c r="AC30" s="31" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE30" s="38" t="e">
+      <c r="AE30" s="32" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF30" s="38" t="e">
+      <c r="AF30" s="32" t="e">
         <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG30" s="38" t="e">
+      <c r="AG30" s="32" t="e">
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI30" s="40" t="e">
+      <c r="AI30" s="34" t="e">
         <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ30" s="40" t="e">
+      <c r="AJ30" s="34" t="e">
         <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK30" s="40" t="e">
+      <c r="AK30" s="34" t="e">
         <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AL30" s="61"/>
-      <c r="AM30" s="59"/>
-      <c r="AN30" s="56"/>
-      <c r="AO30" s="56"/>
-      <c r="AP30" s="56"/>
-      <c r="AQ30" s="56"/>
-      <c r="AR30" s="56"/>
-      <c r="AS30" s="56"/>
-      <c r="AT30" s="56"/>
+      <c r="AL30" s="71"/>
+      <c r="AM30" s="33"/>
+      <c r="AN30" s="54"/>
+      <c r="AO30" s="53"/>
+      <c r="AP30" s="50"/>
+      <c r="AQ30" s="50"/>
+      <c r="AR30" s="50"/>
+      <c r="AS30" s="50"/>
+      <c r="AT30" s="50"/>
+      <c r="AU30" s="50"/>
     </row>
-    <row r="31" spans="1:53">
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="31"/>
-      <c r="J31" s="31"/>
-      <c r="K31" s="31"/>
-      <c r="L31" s="31"/>
-      <c r="M31" s="31"/>
-      <c r="N31" s="31"/>
-      <c r="O31" s="31"/>
-      <c r="P31" s="31"/>
-      <c r="Q31" s="31"/>
-      <c r="S31" s="31"/>
-      <c r="T31" s="31"/>
-      <c r="U31" s="31"/>
-      <c r="AA31" s="35" t="e">
+    <row r="31" spans="1:54">
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="25"/>
+      <c r="L31" s="25"/>
+      <c r="M31" s="25"/>
+      <c r="N31" s="25"/>
+      <c r="O31" s="25"/>
+      <c r="P31" s="25"/>
+      <c r="Q31" s="25"/>
+      <c r="S31" s="25"/>
+      <c r="T31" s="25"/>
+      <c r="U31" s="25"/>
+      <c r="AA31" s="29" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB31" s="36" t="e">
+      <c r="AB31" s="30" t="e">
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC31" s="37" t="e">
+      <c r="AC31" s="31" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE31" s="38" t="e">
+      <c r="AE31" s="32" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF31" s="38" t="e">
+      <c r="AF31" s="32" t="e">
         <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG31" s="38" t="e">
+      <c r="AG31" s="32" t="e">
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI31" s="40" t="e">
+      <c r="AI31" s="34" t="e">
         <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ31" s="40" t="e">
+      <c r="AJ31" s="34" t="e">
         <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK31" s="40" t="e">
+      <c r="AK31" s="34" t="e">
         <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AL31" s="61"/>
-      <c r="AM31" s="59"/>
-      <c r="AN31" s="56"/>
-      <c r="AO31" s="56"/>
-      <c r="AP31" s="56"/>
-      <c r="AQ31" s="56"/>
-      <c r="AR31" s="56"/>
-      <c r="AS31" s="56"/>
-      <c r="AT31" s="56"/>
+      <c r="AN31" s="54"/>
+      <c r="AO31" s="53"/>
+      <c r="AP31" s="50"/>
+      <c r="AQ31" s="50"/>
+      <c r="AR31" s="50"/>
+      <c r="AS31" s="50"/>
+      <c r="AT31" s="50"/>
+      <c r="AU31" s="50"/>
     </row>
-    <row r="32" spans="1:53">
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="31"/>
-      <c r="J32" s="31"/>
-      <c r="K32" s="31"/>
-      <c r="L32" s="31"/>
-      <c r="M32" s="31"/>
-      <c r="N32" s="31"/>
-      <c r="O32" s="31"/>
-      <c r="P32" s="31"/>
-      <c r="Q32" s="31"/>
-      <c r="S32" s="31"/>
-      <c r="T32" s="31"/>
-      <c r="U32" s="31"/>
-      <c r="AA32" s="35" t="e">
+    <row r="32" spans="1:54">
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="25"/>
+      <c r="L32" s="25"/>
+      <c r="M32" s="25"/>
+      <c r="N32" s="25"/>
+      <c r="O32" s="25"/>
+      <c r="P32" s="25"/>
+      <c r="Q32" s="25"/>
+      <c r="S32" s="25"/>
+      <c r="T32" s="25"/>
+      <c r="U32" s="25"/>
+      <c r="AA32" s="29" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB32" s="36" t="e">
+      <c r="AB32" s="30" t="e">
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC32" s="37" t="e">
+      <c r="AC32" s="31" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE32" s="38" t="e">
+      <c r="AE32" s="32" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF32" s="38" t="e">
+      <c r="AF32" s="32" t="e">
         <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG32" s="38" t="e">
+      <c r="AG32" s="32" t="e">
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI32" s="40" t="e">
+      <c r="AI32" s="34" t="e">
         <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ32" s="40" t="e">
+      <c r="AJ32" s="34" t="e">
         <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK32" s="40" t="e">
+      <c r="AK32" s="34" t="e">
         <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AL32" s="61"/>
-      <c r="AM32" s="59"/>
-      <c r="AN32" s="56"/>
-      <c r="AO32" s="56"/>
-      <c r="AP32" s="56"/>
-      <c r="AQ32" s="56"/>
-      <c r="AR32" s="56"/>
-      <c r="AS32" s="56"/>
-      <c r="AT32" s="56"/>
+      <c r="AN32" s="54"/>
+      <c r="AO32" s="53"/>
+      <c r="AP32" s="50"/>
+      <c r="AQ32" s="50"/>
+      <c r="AR32" s="50"/>
+      <c r="AS32" s="50"/>
+      <c r="AT32" s="50"/>
+      <c r="AU32" s="50"/>
     </row>
-    <row r="33" spans="3:46">
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="L33" s="31"/>
-      <c r="M33" s="31"/>
-      <c r="N33" s="31"/>
-      <c r="AA33" s="35" t="e">
+    <row r="33" spans="3:47">
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="L33" s="25"/>
+      <c r="M33" s="25"/>
+      <c r="N33" s="25"/>
+      <c r="AA33" s="29" t="e">
         <f t="shared" ref="AA33:AA40" si="27">O33/S33</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB33" s="36" t="e">
+      <c r="AB33" s="30" t="e">
         <f t="shared" ref="AB33:AB39" si="28">P33/T33</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC33" s="37" t="e">
+      <c r="AC33" s="31" t="e">
         <f t="shared" ref="AC33:AC39" si="29">Q33/U33</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE33" s="38" t="e">
+      <c r="AE33" s="32" t="e">
         <f t="shared" ref="AE33:AE39" si="30">$W$7*(20-I33)+AC33</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF33" s="38" t="e">
+      <c r="AF33" s="32" t="e">
         <f t="shared" ref="AF33:AF39" si="31">$X$7*(20-I33)+AA33</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG33" s="38" t="e">
+      <c r="AG33" s="32" t="e">
         <f t="shared" ref="AG33:AG39" si="32">$Y$7*(20-I33)+AB33</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI33" s="40" t="e">
+      <c r="AI33" s="34" t="e">
         <f t="shared" ref="AI33:AI39" si="33">AE33*$W$3</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ33" s="40" t="e">
+      <c r="AJ33" s="34" t="e">
         <f t="shared" ref="AJ33:AJ39" si="34">AF33*$X$3</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK33" s="40" t="e">
+      <c r="AK33" s="34" t="e">
         <f t="shared" ref="AK33:AK39" si="35">AG33*$Y$3</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AL33" s="61"/>
-      <c r="AM33" s="59"/>
-      <c r="AN33" s="56"/>
-      <c r="AO33" s="56"/>
-      <c r="AP33" s="56"/>
-      <c r="AQ33" s="56"/>
-      <c r="AR33" s="56"/>
-      <c r="AS33" s="56"/>
-      <c r="AT33" s="62"/>
+      <c r="AN33" s="54"/>
+      <c r="AO33" s="53"/>
+      <c r="AP33" s="50"/>
+      <c r="AQ33" s="50"/>
+      <c r="AR33" s="50"/>
+      <c r="AS33" s="50"/>
+      <c r="AT33" s="50"/>
+      <c r="AU33" s="50"/>
     </row>
-    <row r="34" spans="3:46">
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="L34" s="31"/>
-      <c r="M34" s="31"/>
-      <c r="N34" s="31"/>
-      <c r="AA34" s="35" t="e">
+    <row r="34" spans="3:47">
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="L34" s="25"/>
+      <c r="M34" s="25"/>
+      <c r="N34" s="25"/>
+      <c r="AA34" s="29" t="e">
         <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB34" s="36" t="e">
+      <c r="AB34" s="30" t="e">
         <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC34" s="37" t="e">
+      <c r="AC34" s="31" t="e">
         <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE34" s="38" t="e">
+      <c r="AE34" s="32" t="e">
         <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF34" s="38" t="e">
+      <c r="AF34" s="32" t="e">
         <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG34" s="38" t="e">
+      <c r="AG34" s="32" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI34" s="40" t="e">
+      <c r="AI34" s="34" t="e">
         <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ34" s="40" t="e">
+      <c r="AJ34" s="34" t="e">
         <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK34" s="40" t="e">
+      <c r="AK34" s="34" t="e">
         <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AL34" s="61"/>
-      <c r="AM34" s="59"/>
-      <c r="AN34" s="56"/>
-      <c r="AO34" s="56"/>
-      <c r="AP34" s="56"/>
-      <c r="AQ34" s="56"/>
-      <c r="AR34" s="56"/>
-      <c r="AS34" s="56"/>
-      <c r="AT34" s="62"/>
+      <c r="AN34" s="54"/>
+      <c r="AO34" s="53"/>
+      <c r="AP34" s="50"/>
+      <c r="AQ34" s="50"/>
+      <c r="AR34" s="50"/>
+      <c r="AS34" s="50"/>
+      <c r="AT34" s="50"/>
+      <c r="AU34" s="50"/>
     </row>
-    <row r="35" spans="3:46">
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
-      <c r="L35" s="31"/>
-      <c r="M35" s="31"/>
-      <c r="N35" s="31"/>
-      <c r="AA35" s="35" t="e">
+    <row r="35" spans="3:47">
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="L35" s="25"/>
+      <c r="M35" s="25"/>
+      <c r="N35" s="25"/>
+      <c r="AA35" s="29" t="e">
         <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB35" s="36" t="e">
+      <c r="AB35" s="30" t="e">
         <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC35" s="37" t="e">
+      <c r="AC35" s="31" t="e">
         <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE35" s="38" t="e">
+      <c r="AE35" s="32" t="e">
         <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF35" s="38" t="e">
+      <c r="AF35" s="32" t="e">
         <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG35" s="38" t="e">
+      <c r="AG35" s="32" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI35" s="40" t="e">
+      <c r="AI35" s="34" t="e">
         <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ35" s="40" t="e">
+      <c r="AJ35" s="34" t="e">
         <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK35" s="40" t="e">
+      <c r="AK35" s="34" t="e">
         <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AL35" s="61"/>
-      <c r="AM35" s="59"/>
-      <c r="AN35" s="56"/>
-      <c r="AO35" s="56"/>
-      <c r="AP35" s="56"/>
-      <c r="AQ35" s="56"/>
-      <c r="AR35" s="56"/>
-      <c r="AS35" s="56"/>
-      <c r="AT35" s="56"/>
+      <c r="AN35" s="54"/>
+      <c r="AO35" s="53"/>
+      <c r="AP35" s="50"/>
+      <c r="AQ35" s="50"/>
+      <c r="AR35" s="50"/>
+      <c r="AS35" s="50"/>
+      <c r="AT35" s="50"/>
+      <c r="AU35" s="50"/>
     </row>
-    <row r="36" spans="3:46">
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="31"/>
-      <c r="K36" s="31"/>
-      <c r="L36" s="31"/>
-      <c r="M36" s="31"/>
-      <c r="N36" s="31"/>
-      <c r="O36" s="31"/>
-      <c r="P36" s="31"/>
-      <c r="Q36" s="31"/>
-      <c r="S36" s="31"/>
-      <c r="T36" s="31"/>
-      <c r="U36" s="31"/>
-      <c r="AA36" s="35" t="e">
+    <row r="36" spans="3:47">
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="25"/>
+      <c r="L36" s="25"/>
+      <c r="M36" s="25"/>
+      <c r="N36" s="25"/>
+      <c r="O36" s="25"/>
+      <c r="P36" s="25"/>
+      <c r="Q36" s="25"/>
+      <c r="S36" s="25"/>
+      <c r="T36" s="25"/>
+      <c r="U36" s="25"/>
+      <c r="AA36" s="29" t="e">
         <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB36" s="36" t="e">
+      <c r="AB36" s="30" t="e">
         <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC36" s="37" t="e">
+      <c r="AC36" s="31" t="e">
         <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE36" s="38" t="e">
+      <c r="AE36" s="32" t="e">
         <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF36" s="38" t="e">
+      <c r="AF36" s="32" t="e">
         <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG36" s="38" t="e">
+      <c r="AG36" s="32" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI36" s="40" t="e">
+      <c r="AI36" s="34" t="e">
         <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ36" s="40" t="e">
+      <c r="AJ36" s="34" t="e">
         <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK36" s="40" t="e">
+      <c r="AK36" s="34" t="e">
         <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AL36" s="61"/>
-      <c r="AM36" s="59"/>
-      <c r="AN36" s="56"/>
-      <c r="AO36" s="56"/>
-      <c r="AP36" s="56"/>
-      <c r="AQ36" s="56"/>
-      <c r="AR36" s="56"/>
-      <c r="AS36" s="56"/>
-      <c r="AT36" s="56"/>
+      <c r="AN36" s="54"/>
+      <c r="AO36" s="53"/>
+      <c r="AP36" s="50"/>
+      <c r="AQ36" s="50"/>
+      <c r="AR36" s="50"/>
+      <c r="AS36" s="50"/>
+      <c r="AT36" s="50"/>
+      <c r="AU36" s="50"/>
     </row>
-    <row r="37" spans="3:46">
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="31"/>
-      <c r="J37" s="31"/>
-      <c r="K37" s="31"/>
-      <c r="L37" s="31"/>
-      <c r="M37" s="31"/>
-      <c r="N37" s="31"/>
-      <c r="O37" s="31"/>
-      <c r="P37" s="31"/>
-      <c r="Q37" s="31"/>
-      <c r="S37" s="31"/>
-      <c r="T37" s="31"/>
-      <c r="U37" s="31"/>
-      <c r="AA37" s="35" t="e">
+    <row r="37" spans="3:47">
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="25"/>
+      <c r="J37" s="25"/>
+      <c r="K37" s="25"/>
+      <c r="L37" s="25"/>
+      <c r="M37" s="25"/>
+      <c r="N37" s="25"/>
+      <c r="O37" s="25"/>
+      <c r="P37" s="25"/>
+      <c r="Q37" s="25"/>
+      <c r="S37" s="25"/>
+      <c r="T37" s="25"/>
+      <c r="U37" s="25"/>
+      <c r="AA37" s="29" t="e">
         <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB37" s="36" t="e">
+      <c r="AB37" s="30" t="e">
         <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC37" s="37" t="e">
+      <c r="AC37" s="31" t="e">
         <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE37" s="38" t="e">
+      <c r="AE37" s="32" t="e">
         <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF37" s="38" t="e">
+      <c r="AF37" s="32" t="e">
         <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG37" s="38" t="e">
+      <c r="AG37" s="32" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI37" s="40" t="e">
+      <c r="AI37" s="34" t="e">
         <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ37" s="40" t="e">
+      <c r="AJ37" s="34" t="e">
         <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK37" s="40" t="e">
+      <c r="AK37" s="34" t="e">
         <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AL37" s="61"/>
-      <c r="AM37" s="59"/>
-      <c r="AN37" s="56"/>
-      <c r="AO37" s="56"/>
-      <c r="AP37" s="56"/>
-      <c r="AQ37" s="56"/>
-      <c r="AR37" s="56"/>
-      <c r="AS37" s="56"/>
-      <c r="AT37" s="56"/>
+      <c r="AN37" s="54"/>
+      <c r="AO37" s="53"/>
+      <c r="AP37" s="50"/>
+      <c r="AQ37" s="50"/>
+      <c r="AR37" s="50"/>
+      <c r="AS37" s="50"/>
+      <c r="AT37" s="50"/>
+      <c r="AU37" s="50"/>
     </row>
-    <row r="38" spans="3:46">
-      <c r="C38" s="31"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="31"/>
-      <c r="K38" s="31"/>
-      <c r="L38" s="31"/>
-      <c r="M38" s="31"/>
-      <c r="N38" s="31"/>
-      <c r="O38" s="31"/>
-      <c r="P38" s="31"/>
-      <c r="Q38" s="31"/>
-      <c r="S38" s="31"/>
-      <c r="T38" s="31"/>
-      <c r="U38" s="31"/>
-      <c r="AA38" s="35" t="e">
+    <row r="38" spans="3:47">
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="25"/>
+      <c r="K38" s="25"/>
+      <c r="L38" s="25"/>
+      <c r="M38" s="25"/>
+      <c r="N38" s="25"/>
+      <c r="O38" s="25"/>
+      <c r="P38" s="25"/>
+      <c r="Q38" s="25"/>
+      <c r="S38" s="25"/>
+      <c r="T38" s="25"/>
+      <c r="U38" s="25"/>
+      <c r="AA38" s="29" t="e">
         <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB38" s="36" t="e">
+      <c r="AB38" s="30" t="e">
         <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC38" s="37" t="e">
+      <c r="AC38" s="31" t="e">
         <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE38" s="38" t="e">
+      <c r="AE38" s="32" t="e">
         <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF38" s="38" t="e">
+      <c r="AF38" s="32" t="e">
         <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG38" s="38" t="e">
+      <c r="AG38" s="32" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI38" s="40" t="e">
+      <c r="AI38" s="34" t="e">
         <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ38" s="40" t="e">
+      <c r="AJ38" s="34" t="e">
         <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK38" s="40" t="e">
+      <c r="AK38" s="34" t="e">
         <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AL38" s="61"/>
-      <c r="AM38" s="59"/>
-      <c r="AN38" s="56"/>
-      <c r="AO38" s="56"/>
-      <c r="AP38" s="56"/>
-      <c r="AQ38" s="56"/>
-      <c r="AR38" s="56"/>
-      <c r="AS38" s="56"/>
-      <c r="AT38" s="56"/>
+      <c r="AN38" s="54"/>
+      <c r="AO38" s="53"/>
+      <c r="AP38" s="50"/>
+      <c r="AQ38" s="50"/>
+      <c r="AR38" s="50"/>
+      <c r="AS38" s="50"/>
+      <c r="AT38" s="50"/>
+      <c r="AU38" s="50"/>
     </row>
-    <row r="39" spans="3:46">
-      <c r="C39" s="31"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="31"/>
-      <c r="I39" s="31"/>
-      <c r="J39" s="31"/>
-      <c r="K39" s="31"/>
-      <c r="L39" s="31"/>
-      <c r="M39" s="31"/>
-      <c r="N39" s="31"/>
-      <c r="O39" s="31"/>
-      <c r="P39" s="31"/>
-      <c r="Q39" s="31"/>
-      <c r="S39" s="31"/>
-      <c r="T39" s="31"/>
-      <c r="U39" s="31"/>
-      <c r="AA39" s="35" t="e">
+    <row r="39" spans="3:47">
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="25"/>
+      <c r="K39" s="25"/>
+      <c r="L39" s="25"/>
+      <c r="M39" s="25"/>
+      <c r="N39" s="25"/>
+      <c r="O39" s="25"/>
+      <c r="P39" s="25"/>
+      <c r="Q39" s="25"/>
+      <c r="S39" s="25"/>
+      <c r="T39" s="25"/>
+      <c r="U39" s="25"/>
+      <c r="AA39" s="29" t="e">
         <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB39" s="36" t="e">
+      <c r="AB39" s="30" t="e">
         <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC39" s="37" t="e">
+      <c r="AC39" s="31" t="e">
         <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE39" s="38" t="e">
+      <c r="AE39" s="32" t="e">
         <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF39" s="38" t="e">
+      <c r="AF39" s="32" t="e">
         <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG39" s="38" t="e">
+      <c r="AG39" s="32" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI39" s="40" t="e">
+      <c r="AI39" s="34" t="e">
         <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ39" s="40" t="e">
+      <c r="AJ39" s="34" t="e">
         <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK39" s="40" t="e">
+      <c r="AK39" s="34" t="e">
         <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AL39" s="61"/>
-      <c r="AM39" s="59"/>
-      <c r="AN39" s="56"/>
-      <c r="AO39" s="56"/>
-      <c r="AP39" s="56"/>
-      <c r="AQ39" s="56"/>
-      <c r="AR39" s="56"/>
-      <c r="AS39" s="56"/>
-      <c r="AT39" s="56"/>
+      <c r="AN39" s="54"/>
+      <c r="AO39" s="53"/>
+      <c r="AP39" s="50"/>
+      <c r="AQ39" s="50"/>
+      <c r="AR39" s="50"/>
+      <c r="AS39" s="50"/>
+      <c r="AT39" s="50"/>
+      <c r="AU39" s="50"/>
     </row>
-    <row r="40" spans="3:46">
-      <c r="AA40" s="35" t="e">
+    <row r="40" spans="3:47">
+      <c r="AA40" s="29" t="e">
         <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AL40" s="56"/>
-      <c r="AM40" s="56"/>
-      <c r="AN40" s="56"/>
-      <c r="AO40" s="56"/>
-      <c r="AP40" s="56"/>
-      <c r="AQ40" s="56"/>
-      <c r="AR40" s="56"/>
-      <c r="AS40" s="56"/>
-      <c r="AT40" s="56"/>
+      <c r="AN40" s="50"/>
+      <c r="AO40" s="50"/>
+      <c r="AP40" s="50"/>
+      <c r="AQ40" s="50"/>
+      <c r="AR40" s="50"/>
+      <c r="AS40" s="50"/>
+      <c r="AT40" s="50"/>
+      <c r="AU40" s="50"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6476,8 +6571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{131672C0-DA0C-0746-8A59-3EFE5C746DAE}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6486,72 +6581,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="24">
-      <c r="A1" s="69" t="s">
-        <v>104</v>
-      </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
+      <c r="A1" s="61" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="44" t="s">
+      <c r="E2" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="44" t="s">
+      <c r="F2" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="44" t="s">
+      <c r="G2" s="38" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="46">
+      <c r="B4" s="40">
         <v>15.7</v>
       </c>
-      <c r="C4" s="46">
+      <c r="C4" s="40">
         <v>-3.3</v>
       </c>
-      <c r="D4" s="46">
+      <c r="D4" s="40">
         <f>B4-C4</f>
         <v>19</v>
       </c>
-      <c r="E4" s="46">
+      <c r="E4" s="40">
         <f>AVERAGE(B4:C4)</f>
         <v>6.1999999999999993</v>
       </c>
-      <c r="F4" s="46">
+      <c r="F4" s="40">
         <f>((G4/1000+1)^0.516-1)*1000</f>
         <v>22.618966808462872</v>
       </c>
-      <c r="G4" s="46">
+      <c r="G4" s="40">
         <v>44.3</v>
       </c>
     </row>
@@ -6559,23 +6654,23 @@
       <c r="A5" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="46">
+      <c r="B5" s="40">
         <v>-0.40396535511111115</v>
       </c>
-      <c r="C5" s="46">
+      <c r="C5" s="40">
         <v>-0.14814902897277774</v>
       </c>
-      <c r="D5" s="46">
+      <c r="D5" s="40">
         <v>-0.25581632607722216</v>
       </c>
-      <c r="E5" s="46">
+      <c r="E5" s="40">
         <v>-0.27605719255555561</v>
       </c>
-      <c r="F5" s="46">
+      <c r="F5" s="40">
         <f t="shared" ref="F5:F6" si="0">((G5/1000+1)^0.516-1)*1000</f>
         <v>21.430518925956932</v>
       </c>
-      <c r="G5" s="46">
+      <c r="G5" s="40">
         <v>41.949257311111111</v>
       </c>
     </row>
@@ -6583,291 +6678,291 @@
       <c r="A6" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="46">
+      <c r="B6" s="40">
         <v>5.55</v>
       </c>
-      <c r="C6" s="46">
+      <c r="C6" s="40">
         <v>-12.87</v>
       </c>
-      <c r="D6" s="46">
+      <c r="D6" s="40">
         <v>18.420000000000002</v>
       </c>
-      <c r="E6" s="46">
+      <c r="E6" s="40">
         <v>-3.66</v>
       </c>
-      <c r="F6" s="46">
+      <c r="F6" s="40">
         <f t="shared" si="0"/>
         <v>16.757033254469313</v>
       </c>
-      <c r="G6" s="46">
+      <c r="G6" s="40">
         <v>32.729999999999997</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="45" t="s">
-        <v>111</v>
-      </c>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
+      <c r="A8" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="47" t="s">
+      <c r="A9" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="65">
-        <f>AVERAGE(size_correction!AN3,size_correction!AN6,size_correction!AN9,size_correction!AN11,size_correction!AN14,size_correction!AN15)</f>
-        <v>15.051210008933149</v>
-      </c>
-      <c r="C9" s="65">
-        <f>AVERAGE(size_correction!AO3,size_correction!AO6,size_correction!AO9,size_correction!AO11,size_correction!AO14,size_correction!AO15)</f>
-        <v>-3.5561697630345002</v>
-      </c>
-      <c r="D9" s="65">
+      <c r="B9" s="57">
         <f>AVERAGE(size_correction!AP3,size_correction!AP6,size_correction!AP9,size_correction!AP11,size_correction!AP14,size_correction!AP15)</f>
-        <v>18.607379771967647</v>
-      </c>
-      <c r="E9" s="65">
+        <v>15.096833230519634</v>
+      </c>
+      <c r="C9" s="57">
         <f>AVERAGE(size_correction!AQ3,size_correction!AQ6,size_correction!AQ9,size_correction!AQ11,size_correction!AQ14,size_correction!AQ15)</f>
-        <v>5.7475201229493464</v>
-      </c>
-      <c r="F9" s="65">
+        <v>-3.601793278303397</v>
+      </c>
+      <c r="D9" s="57">
         <f>AVERAGE(size_correction!AR3,size_correction!AR6,size_correction!AR9,size_correction!AR11,size_correction!AR14,size_correction!AR15)</f>
-        <v>23.653205185354519</v>
-      </c>
-      <c r="G9" s="65">
+        <v>18.698626508823054</v>
+      </c>
+      <c r="E9" s="57">
         <f>AVERAGE(size_correction!AS3,size_correction!AS6,size_correction!AS9,size_correction!AS11,size_correction!AS14,size_correction!AS15)</f>
-        <v>46.348029409836023</v>
+        <v>5.7475199761081406</v>
+      </c>
+      <c r="F9" s="57">
+        <f>AVERAGE(size_correction!AT3,size_correction!AT6,size_correction!AT9,size_correction!AT11,size_correction!AT14,size_correction!AT15)</f>
+        <v>23.653208027480417</v>
+      </c>
+      <c r="G9" s="57">
+        <f>AVERAGE(size_correction!AU3,size_correction!AU6,size_correction!AU9,size_correction!AU11,size_correction!AU14,size_correction!AU15)</f>
+        <v>46.34803503983705</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="47" t="s">
+      <c r="A10" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="65">
-        <f>AVERAGE(size_correction!AN5,size_correction!AN8,size_correction!AN13)</f>
-        <v>-0.9565314303671858</v>
-      </c>
-      <c r="C10" s="65">
-        <f>AVERAGE(size_correction!AO5,size_correction!AO8,size_correction!AO13)</f>
-        <v>0.68363131823097723</v>
-      </c>
-      <c r="D10" s="65">
+      <c r="B10" s="57">
         <f>AVERAGE(size_correction!AP5,size_correction!AP8,size_correction!AP13)</f>
-        <v>-1.6401627485981611</v>
-      </c>
-      <c r="E10" s="65">
+        <v>-0.91149543144471468</v>
+      </c>
+      <c r="C10" s="57">
         <f>AVERAGE(size_correction!AQ5,size_correction!AQ8,size_correction!AQ13)</f>
-        <v>-0.13645005606810501</v>
-      </c>
-      <c r="F10" s="65">
+        <v>0.63859534458080758</v>
+      </c>
+      <c r="D10" s="57">
         <f>AVERAGE(size_correction!AR5,size_correction!AR8,size_correction!AR13)</f>
-        <v>22.21895213830253</v>
-      </c>
-      <c r="G10" s="65">
+        <v>-1.5500907760255205</v>
+      </c>
+      <c r="E10" s="57">
         <f>AVERAGE(size_correction!AS5,size_correction!AS8,size_correction!AS13)</f>
-        <v>43.508667511434091</v>
+        <v>-0.1364500434319533</v>
+      </c>
+      <c r="F10" s="57">
+        <f>AVERAGE(size_correction!AT5,size_correction!AT8,size_correction!AT13)</f>
+        <v>22.218951893728967</v>
+      </c>
+      <c r="G10" s="57">
+        <f>AVERAGE(size_correction!AU5,size_correction!AU8,size_correction!AU13)</f>
+        <v>43.508667027551191</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="65">
-        <f>AVERAGE(size_correction!AN4,size_correction!AN7,size_correction!AN12,size_correction!AN16)</f>
-        <v>6.1653607336575833</v>
-      </c>
-      <c r="C11" s="65">
-        <f>AVERAGE(size_correction!AO4,size_correction!AO7,size_correction!AO12,size_correction!AO16)</f>
-        <v>-13.0996991065127</v>
-      </c>
-      <c r="D11" s="65">
+      <c r="B11" s="57">
         <f>AVERAGE(size_correction!AP4,size_correction!AP7,size_correction!AP12,size_correction!AP16)</f>
-        <v>19.265059840170277</v>
-      </c>
-      <c r="E11" s="65">
+        <v>6.2105946396398499</v>
+      </c>
+      <c r="C11" s="57">
         <f>AVERAGE(size_correction!AQ4,size_correction!AQ7,size_correction!AQ12,size_correction!AQ16)</f>
-        <v>-3.46716918642757</v>
-      </c>
-      <c r="F11" s="65">
+        <v>-13.144933321750001</v>
+      </c>
+      <c r="D11" s="57">
         <f>AVERAGE(size_correction!AR4,size_correction!AR7,size_correction!AR12,size_correction!AR16)</f>
-        <v>17.517559897319124</v>
-      </c>
-      <c r="G11" s="65">
+        <v>19.355527961389825</v>
+      </c>
+      <c r="E11" s="57">
         <f>AVERAGE(size_correction!AS4,size_correction!AS7,size_correction!AS12,size_correction!AS16)</f>
-        <v>34.227640725793755</v>
+        <v>-3.4671693410550875</v>
+      </c>
+      <c r="F11" s="57">
+        <f>AVERAGE(size_correction!AT4,size_correction!AT7,size_correction!AT12,size_correction!AT16)</f>
+        <v>17.517562890149723</v>
+      </c>
+      <c r="G11" s="57">
+        <f>AVERAGE(size_correction!AU4,size_correction!AU7,size_correction!AU12,size_correction!AU16)</f>
+        <v>34.227646621075479</v>
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="B12" s="46"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="45" t="s">
-        <v>105</v>
-      </c>
-      <c r="B13" s="46"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
+      <c r="A13" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="48">
+      <c r="B14" s="42">
         <f>SLOPE(B4:B6,B9:B11)</f>
-        <v>1.0115449978016269</v>
-      </c>
-      <c r="C14" s="48">
+        <v>1.0115079949401127</v>
+      </c>
+      <c r="C14" s="42">
         <f>SLOPE(C4:C6,C9:C11)</f>
-        <v>0.93649309744156917</v>
-      </c>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48">
+        <v>0.93648581715233203</v>
+      </c>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42">
         <f>SLOPE(F4:F6,F9:F11)</f>
-        <v>0.96500123514832581</v>
-      </c>
-      <c r="G14" s="48">
+        <v>0.96500140132066492</v>
+      </c>
+      <c r="G14" s="42">
         <f t="shared" ref="G14" si="1">SLOPE(G4:G6,G9:G11)</f>
-        <v>0.96419967181826449</v>
+        <v>0.96419983518064523</v>
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="46">
+      <c r="B15" s="40">
         <f>INTERCEPT(B4:B6,B9:B11)</f>
-        <v>0.11736440778161583</v>
-      </c>
-      <c r="C15" s="46">
+        <v>7.1795306290169947E-2</v>
+      </c>
+      <c r="C15" s="40">
         <f>INTERCEPT(C4:C6,C9:C11)</f>
-        <v>-0.45341960382270141</v>
-      </c>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46">
+        <v>-0.41103752246483616</v>
+      </c>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40">
         <f>INTERCEPT(F4:F6,F9:F11)</f>
-        <v>-0.12154547501866375</v>
-      </c>
-      <c r="G15" s="46">
+        <v>-0.12155078446697942</v>
+      </c>
+      <c r="G15" s="40">
         <f t="shared" ref="G15" si="2">INTERCEPT(G4:G6,G9:G11)</f>
-        <v>-0.22094010865819769</v>
+        <v>-0.22095041426777584</v>
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="45"/>
-      <c r="B16" s="46"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
+      <c r="A16" s="39"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="46">
+      <c r="B17" s="40">
         <f t="shared" ref="B17:C19" si="3">B$15+B$14*B9</f>
-        <v>15.342340603179721</v>
-      </c>
-      <c r="C17" s="46">
+        <v>15.342362817238348</v>
+      </c>
+      <c r="C17" s="40">
         <f t="shared" si="3"/>
-        <v>-3.7837480402349315</v>
-      </c>
-      <c r="D17" s="46">
+        <v>-3.7840658439105699</v>
+      </c>
+      <c r="D17" s="40">
         <f>B17-C17</f>
-        <v>19.126088643414654</v>
-      </c>
-      <c r="E17" s="46">
+        <v>19.126428661148918</v>
+      </c>
+      <c r="E17" s="40">
         <f>AVERAGE(B17:C17)</f>
-        <v>5.7792962814723952</v>
-      </c>
-      <c r="F17" s="46">
+        <v>5.7791484866638889</v>
+      </c>
+      <c r="F17" s="40">
         <f t="shared" ref="F17:G19" si="4">F$15+F$14*F9</f>
-        <v>22.703826744065232</v>
-      </c>
-      <c r="G17" s="46">
+        <v>22.703828107780822</v>
+      </c>
+      <c r="G17" s="40">
         <f t="shared" si="4"/>
-        <v>44.467814637728964</v>
+        <v>44.467817332089879</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="47" t="s">
+      <c r="A18" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="46">
+      <c r="B18" s="40">
         <f t="shared" si="3"/>
-        <v>-0.85021017584634617</v>
-      </c>
-      <c r="C18" s="46">
+        <v>-0.85018960996754633</v>
+      </c>
+      <c r="C18" s="40">
         <f t="shared" si="3"/>
-        <v>0.18679640689548949</v>
-      </c>
-      <c r="D18" s="46">
+        <v>0.18699796063459651</v>
+      </c>
+      <c r="D18" s="40">
         <f>B18-C18</f>
-        <v>-1.0370065827418355</v>
-      </c>
-      <c r="E18" s="46">
+        <v>-1.0371875706021427</v>
+      </c>
+      <c r="E18" s="40">
         <f t="shared" ref="E18:E19" si="5">AVERAGE(B18:C18)</f>
-        <v>-0.33170688447542834</v>
-      </c>
-      <c r="F18" s="46">
+        <v>-0.33159582466647491</v>
+      </c>
+      <c r="F18" s="40">
         <f t="shared" si="4"/>
-        <v>21.319770782144811</v>
-      </c>
-      <c r="G18" s="46">
+        <v>21.319768928857915</v>
+      </c>
+      <c r="G18" s="40">
         <f t="shared" si="4"/>
-        <v>41.730102827116539</v>
+        <v>41.730099162626658</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="47" t="s">
+      <c r="A19" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="46">
+      <c r="B19" s="40">
         <f t="shared" si="3"/>
-        <v>6.3539042175555123</v>
-      </c>
-      <c r="C19" s="46">
+        <v>6.353861437618086</v>
+      </c>
+      <c r="C19" s="40">
         <f t="shared" si="3"/>
-        <v>-12.721197395633336</v>
-      </c>
-      <c r="D19" s="46">
+        <v>-12.721081145696804</v>
+      </c>
+      <c r="D19" s="40">
         <f>B19-C19</f>
-        <v>19.075101613188849</v>
-      </c>
-      <c r="E19" s="46">
+        <v>19.07494258331489</v>
+      </c>
+      <c r="E19" s="40">
         <f t="shared" si="5"/>
-        <v>-3.1836465890389118</v>
-      </c>
-      <c r="F19" s="46">
+        <v>-3.1836098540393589</v>
+      </c>
+      <c r="F19" s="40">
         <f t="shared" si="4"/>
-        <v>16.78292146267907</v>
-      </c>
-      <c r="G19" s="46">
+        <v>16.78292195225038</v>
+      </c>
+      <c r="G19" s="40">
         <f t="shared" si="4"/>
-        <v>32.781339846265602</v>
+        <v>32.781340816394568</v>
       </c>
     </row>
   </sheetData>
